--- a/Mars Profile page Test Conditions and Test cases .xlsx
+++ b/Mars Profile page Test Conditions and Test cases .xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22130"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shaik\Downloads\marsframework-master\marsframework-master\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CD7B392-8B34-461C-BAAA-738356C2F021}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="45" windowWidth="5715" windowHeight="3930" activeTab="1"/>
+    <workbookView xWindow="47625" yWindow="210" windowWidth="19050" windowHeight="20625" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Mars Test Conditions" sheetId="1" r:id="rId1"/>
@@ -15,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="860" uniqueCount="417">
   <si>
     <t>ID</t>
   </si>
@@ -1664,13 +1670,1395 @@
       </rPr>
       <t xml:space="preserve"> Login with Valid Credentials Username: "lakshmi12_nlp@yahoo.com" and Password: "Abc@1234"</t>
     </r>
+  </si>
+  <si>
+    <t>TC_012</t>
+  </si>
+  <si>
+    <t>Validate "Mars logo Search Tab" on profile page</t>
+  </si>
+  <si>
+    <t>Check If the user is able to click on "Mars logo Search Tab"</t>
+  </si>
+  <si>
+    <t>Check if the user is able to "Add" the  Search details on profile page</t>
+  </si>
+  <si>
+    <t>Check if the user is able to "Search" the  details given on search tab on profile page</t>
+  </si>
+  <si>
+    <t>TC_013</t>
+  </si>
+  <si>
+    <t>Validate "Notification Tab" on profile page</t>
+  </si>
+  <si>
+    <t>Check If the user is able to click on "Notification Tab"</t>
+  </si>
+  <si>
+    <t>TC_014</t>
+  </si>
+  <si>
+    <t>Validate "Chat Tab" on profile page</t>
+  </si>
+  <si>
+    <t>Check If the user is able to click on "Chat Tab"</t>
+  </si>
+  <si>
+    <t>TC_015</t>
+  </si>
+  <si>
+    <t>Validate "HiMVP Tab" on profile page</t>
+  </si>
+  <si>
+    <t>Check If the user is able to click on "HiMVP Tab"</t>
+  </si>
+  <si>
+    <t>Check if the user is able to "Select" the "Go to profile"</t>
+  </si>
+  <si>
+    <t>Check if the user is able to "Select" the "Change Password"</t>
+  </si>
+  <si>
+    <t>Check if the user is able to "Select" the "Credit 100"</t>
+  </si>
+  <si>
+    <t>Check if the user is able to "Select" the "Transaction"</t>
+  </si>
+  <si>
+    <t>Check if the user is able to "Select" the "Account Settings"</t>
+  </si>
+  <si>
+    <t>TC_016</t>
+  </si>
+  <si>
+    <t>Validate "SignOut Button" on profile page</t>
+  </si>
+  <si>
+    <t>Check If the user is able to click on "SignOut Tab"</t>
+  </si>
+  <si>
+    <t>TC_017</t>
+  </si>
+  <si>
+    <t>Validate "Dash Board Tab" on profile page</t>
+  </si>
+  <si>
+    <t>Check If the user is able to click on "Dash Board Tab"</t>
+  </si>
+  <si>
+    <t>TC_018</t>
+  </si>
+  <si>
+    <t>Validate "Profile Tab" on profile page</t>
+  </si>
+  <si>
+    <t>Check If the user is able to click on "Profile Tab"</t>
+  </si>
+  <si>
+    <t>TC_019</t>
+  </si>
+  <si>
+    <t>Validate "Manage Listings Tab" on profile page</t>
+  </si>
+  <si>
+    <t>Check If the user is able to click on "Manage Listings  Tab"</t>
+  </si>
+  <si>
+    <t>TC_020</t>
+  </si>
+  <si>
+    <t>Validate "Manage Requests Tab" on profile page</t>
+  </si>
+  <si>
+    <t>Check If the user is able to click on "Manage Requests Tab"</t>
+  </si>
+  <si>
+    <t>TC_021</t>
+  </si>
+  <si>
+    <t>Validate "Share Skill Button" on profile page</t>
+  </si>
+  <si>
+    <t>Check If the user is able to click on "Share Skill Button"</t>
+  </si>
+  <si>
+    <t>TC_022</t>
+  </si>
+  <si>
+    <t>Validate Category Section in Profile Page</t>
+  </si>
+  <si>
+    <t>check if user is able to click on Grapgical Design</t>
+  </si>
+  <si>
+    <t>check if user is able to click on Digital Marketing</t>
+  </si>
+  <si>
+    <t>check if user is able to click on Writing and Translation</t>
+  </si>
+  <si>
+    <t>check if user is able to click on Video and Animation</t>
+  </si>
+  <si>
+    <t>check if user is able to click on Music Audio</t>
+  </si>
+  <si>
+    <t>check if user is able to click on Programming Rech</t>
+  </si>
+  <si>
+    <t>check if user is able to click on Business</t>
+  </si>
+  <si>
+    <t>check if user is able to click on Fun and Lifestyle</t>
+  </si>
+  <si>
+    <t>check if user is able to click on Site Map</t>
+  </si>
+  <si>
+    <t>TC_023</t>
+  </si>
+  <si>
+    <t>Validate About Section in profile page</t>
+  </si>
+  <si>
+    <t>check if user is able to click on Careers</t>
+  </si>
+  <si>
+    <t>check if user is able to click on Press and News</t>
+  </si>
+  <si>
+    <t>check if user is able to click on Partnership</t>
+  </si>
+  <si>
+    <t>check if user is able to click on Privacy Policy</t>
+  </si>
+  <si>
+    <t>check if user is able to click on Terms of Service</t>
+  </si>
+  <si>
+    <t>TC_024</t>
+  </si>
+  <si>
+    <t>Validate Support Section in profile page</t>
+  </si>
+  <si>
+    <t>check if user is able to click on Contact Support</t>
+  </si>
+  <si>
+    <t>check if user is able to click on Help and Education</t>
+  </si>
+  <si>
+    <t>check if user is able to click on Trust and Safety</t>
+  </si>
+  <si>
+    <t>check if user is able to click on Selling on Mars</t>
+  </si>
+  <si>
+    <t>check if user is able to click on Buying on Mars</t>
+  </si>
+  <si>
+    <t>TC_012_01</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Step 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Launch the URL: "www.Skillswap.pro"</t>
+    </r>
+  </si>
+  <si>
+    <t>User Should be able to Navigate to the Login page</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Step 2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Login with Valid Credentials Username: mvpstudio.qa@gmail.com  Password:SydneyQa2018 </t>
+    </r>
+  </si>
+  <si>
+    <t>User should be able to Login in to  the Application</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Step 3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Click on "Mars logo Search Tab"</t>
+    </r>
+  </si>
+  <si>
+    <t>User should be able to Click on "Mars logo Search Tab"</t>
+  </si>
+  <si>
+    <t>TC_012_02</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Step 4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Type and Send the details in the search bar</t>
+    </r>
+  </si>
+  <si>
+    <t>User should be able to send details in search bar</t>
+  </si>
+  <si>
+    <t>TC_012_03</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Step 5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Click on "Search" button</t>
+    </r>
+  </si>
+  <si>
+    <t>User Should be able to Click on 'search' button</t>
+  </si>
+  <si>
+    <t>TC_013_01</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Step 3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Click on "Notification Tab"</t>
+    </r>
+  </si>
+  <si>
+    <t>User Should be able to Click on  "Notification Tab"</t>
+  </si>
+  <si>
+    <t>TC_014_01</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Step 3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Click on "Chat Tab"</t>
+    </r>
+  </si>
+  <si>
+    <t>User Should be able to Click on  "Chat Tab"</t>
+  </si>
+  <si>
+    <t>TC_015_01</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Step 3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Click on "HiMVPTab"</t>
+    </r>
+  </si>
+  <si>
+    <t>User Should be able to Click on  "HiMVP Tab"</t>
+  </si>
+  <si>
+    <t>TC_015_02</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Step 4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Click on "Go to profile"</t>
+    </r>
+  </si>
+  <si>
+    <t>User Should be able to Click on "Go to profile"</t>
+  </si>
+  <si>
+    <t>TC_015_03</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Step 4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Click on "Change Password"</t>
+    </r>
+  </si>
+  <si>
+    <t>User Should be able to Click on "Change Password"</t>
+  </si>
+  <si>
+    <t>TC_015_04</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Step 4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Click on "Credit 100"</t>
+    </r>
+  </si>
+  <si>
+    <t>User Should be able to Click on "Credit 100"</t>
+  </si>
+  <si>
+    <t>TC_015_05</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Step 4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Click on "Transaction"</t>
+    </r>
+  </si>
+  <si>
+    <t>User Should be able to Click on "Transaction"</t>
+  </si>
+  <si>
+    <t>TC_015_06</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Step 4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Click on "Account Settings"</t>
+    </r>
+  </si>
+  <si>
+    <t>User Should be able to Click on "Account Settings"</t>
+  </si>
+  <si>
+    <t>TC_016_01</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Step 3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Click on "SignOut Tab"</t>
+    </r>
+  </si>
+  <si>
+    <t>User Should be able to Click on  "SignOut Tab"</t>
+  </si>
+  <si>
+    <t>TC_017_01</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Step 3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Click on "Dash Board Tab"</t>
+    </r>
+  </si>
+  <si>
+    <t>User Should be able to Click on  "Dash Board Tab"</t>
+  </si>
+  <si>
+    <t>TC_018_01</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Step 3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Click on "Profile  Tab"</t>
+    </r>
+  </si>
+  <si>
+    <t>User Should be able to Click on  "Profile Tab"</t>
+  </si>
+  <si>
+    <t>TC_019_01</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Step 3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Click on "Manage Listings  Tab"</t>
+    </r>
+  </si>
+  <si>
+    <t>User Should be able to Click on  "Manage Listings Tab"</t>
+  </si>
+  <si>
+    <t>TC_020_01</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Step 3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Click on "Manage Requests Tab"</t>
+    </r>
+  </si>
+  <si>
+    <t>User Should be able to Click on  "ManageRequests Tab"</t>
+  </si>
+  <si>
+    <t>TC_021_01</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Step 3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Click on "Share Skill Button"</t>
+    </r>
+  </si>
+  <si>
+    <t>User Should be able to Click on  "Share Skill Button"</t>
+  </si>
+  <si>
+    <t>TC_022_01</t>
+  </si>
+  <si>
+    <t>Check If the user is able to click on "Graphics Design"</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Step 3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Click on "Graphics Design"</t>
+    </r>
+  </si>
+  <si>
+    <t>User Should be able to Click on  "Graphics Design"</t>
+  </si>
+  <si>
+    <t>Check If the user is able to click on "Digital Marketing"</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Step 3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Click on "Digital Marketing"</t>
+    </r>
+  </si>
+  <si>
+    <t>User Should be able to Click on  "Digital Marketing"</t>
+  </si>
+  <si>
+    <t>TC_022_02</t>
+  </si>
+  <si>
+    <t>Check If the user is able to click on "Writing &amp; Translation"</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Step 3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Click on "Writing &amp; Translation"</t>
+    </r>
+  </si>
+  <si>
+    <t>User Should be able to Click on  "Writing &amp; Translation"</t>
+  </si>
+  <si>
+    <t>TC_022_03</t>
+  </si>
+  <si>
+    <t>Check If the user is able to click on "Video &amp; Animation"</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Step 3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Click on "Video &amp; Animation"</t>
+    </r>
+  </si>
+  <si>
+    <t>User Should be able to Click on  "Video &amp; Animation"</t>
+  </si>
+  <si>
+    <t>TC_022_04</t>
+  </si>
+  <si>
+    <t>Check If the user is able to click on "Music Audio "</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Step 3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Click on "Music Audio"</t>
+    </r>
+  </si>
+  <si>
+    <t>User Should be able to Click on  "Music Audio"</t>
+  </si>
+  <si>
+    <t>TC_022_05</t>
+  </si>
+  <si>
+    <t>Check If the user is able to click on "Programming Tech"</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Step 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Launch the URL: "www.Skillswap.pro"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Step 3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Click on "Programming Tech"</t>
+    </r>
+  </si>
+  <si>
+    <t>User Should be able to Click on  "Programming Tech"</t>
+  </si>
+  <si>
+    <t>TC_022_06</t>
+  </si>
+  <si>
+    <t>Check If the user is able to click on "Business"</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Step 3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Click on "Business"</t>
+    </r>
+  </si>
+  <si>
+    <t>User Should be able to Click on  "Business"</t>
+  </si>
+  <si>
+    <t>TC_022_07</t>
+  </si>
+  <si>
+    <t>Check If the user is able to click on "Fun &amp; Lifestyle"</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Step 3:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Click on "Fun &amp; Lifestyle"</t>
+    </r>
+  </si>
+  <si>
+    <t>User Should be able to Click on  "Fun &amp; Lifestyle"</t>
+  </si>
+  <si>
+    <t>TC_022_08</t>
+  </si>
+  <si>
+    <t>Check If the user is able to click on "Sitemap"</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Step 3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Click on "Sitemap"</t>
+    </r>
+  </si>
+  <si>
+    <t>User Should be able to Click on  "Sitemap"</t>
+  </si>
+  <si>
+    <t>TC_023_01</t>
+  </si>
+  <si>
+    <t>Check If the user is able to click on "Careers"</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Step 3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Click on "Careers"</t>
+    </r>
+  </si>
+  <si>
+    <t>User Should be able to Click on  "Careers"</t>
+  </si>
+  <si>
+    <t>TC_023_02</t>
+  </si>
+  <si>
+    <t>Check If the user is able to click on "Press &amp; News"</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Step 3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Click on "Press &amp; News"</t>
+    </r>
+  </si>
+  <si>
+    <t>User Should be able to Click on  "Press &amp; News"</t>
+  </si>
+  <si>
+    <t>TC_023_03</t>
+  </si>
+  <si>
+    <t>Check If the user is able to click on "Partnerships "</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Step 2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Login with Valid Credentials Username: mvpstudio.qa@gmail.com  Password:SydneyQa2018 </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Step 3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Click on "Partnerships"</t>
+    </r>
+  </si>
+  <si>
+    <t>User Should be able to Click on  "Partnerships"</t>
+  </si>
+  <si>
+    <t>TC_023_04</t>
+  </si>
+  <si>
+    <t>Check If the user is able to click on "Privacy Policy"</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Step 3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Click on "Privacy Policy"</t>
+    </r>
+  </si>
+  <si>
+    <t>User Should be able to Click on  "Privacy Policy"</t>
+  </si>
+  <si>
+    <t>TC_023_05</t>
+  </si>
+  <si>
+    <t>Check If the user is able to click on "Terms of Service"</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Step 3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Click on "Terms of Service"</t>
+    </r>
+  </si>
+  <si>
+    <t>User Should be able to Click on  "Terms of Service"</t>
+  </si>
+  <si>
+    <t>TC_024_01</t>
+  </si>
+  <si>
+    <t>Check If the user is able to click on "Contact Support "</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Step 3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Click on "Contact Support "</t>
+    </r>
+  </si>
+  <si>
+    <t>User Should be able to Click on  "Contact Support "</t>
+  </si>
+  <si>
+    <t>TC_024_02</t>
+  </si>
+  <si>
+    <t>Check If the user is able to click on "Help &amp; Education"</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Step 3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Click on "Help &amp; Education"</t>
+    </r>
+  </si>
+  <si>
+    <t>User Should be able to Click on  "Help &amp; Education"</t>
+  </si>
+  <si>
+    <t>TC_024_03</t>
+  </si>
+  <si>
+    <t>Check If the user is able to click on "Trust &amp; Safety "</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Step 3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Click on "Trust &amp; Safety"</t>
+    </r>
+  </si>
+  <si>
+    <t>User Should be able to Click on  "Trust &amp; Safety"</t>
+  </si>
+  <si>
+    <t>TC_024_04</t>
+  </si>
+  <si>
+    <t>Check If the user is able to click on "Selling on Mars"</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Step 3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Click on "Selling on Mars"</t>
+    </r>
+  </si>
+  <si>
+    <t>User Should be able to Click on  "Selling on Mars"</t>
+  </si>
+  <si>
+    <t>TC_024_05</t>
+  </si>
+  <si>
+    <t>Check If the user is able to click on "Buying on Mars"</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Step 3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Click on "Buying on Mars"</t>
+    </r>
+  </si>
+  <si>
+    <t>User Should be able to Click on  "Buying on Mars"</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1774,28 +3162,13 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1804,12 +3177,35 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1856,7 +3252,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1888,9 +3284,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1922,6 +3336,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2097,20 +3529,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D48"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D97"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G57" sqref="G57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="40.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="69.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="40.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="69.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="6" customFormat="1">
+    <row r="1" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -2124,7 +3556,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>49</v>
       </c>
@@ -2135,17 +3567,17 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>50</v>
       </c>
@@ -2156,7 +3588,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>51</v>
       </c>
@@ -2167,22 +3599,22 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D9" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D10" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D11" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>52</v>
       </c>
@@ -2193,12 +3625,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D14" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>53</v>
       </c>
@@ -2209,12 +3641,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D17" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>54</v>
       </c>
@@ -2225,12 +3657,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D20" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>55</v>
       </c>
@@ -2241,12 +3673,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D23" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>56</v>
       </c>
@@ -2257,32 +3689,32 @@
         <v>26</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D26" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D27" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D28" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D29" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D30" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>57</v>
       </c>
@@ -2293,27 +3725,27 @@
         <v>25</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D33" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D34" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D35" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D36" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>58</v>
       </c>
@@ -2324,27 +3756,27 @@
         <v>30</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D39" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D40" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D41" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D42" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>59</v>
       </c>
@@ -2355,24 +3787,282 @@
         <v>34</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D45" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D46" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D47" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D48" t="s">
         <v>37</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>223</v>
+      </c>
+      <c r="C50" t="s">
+        <v>224</v>
+      </c>
+      <c r="D50" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D51" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D52" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>228</v>
+      </c>
+      <c r="C54" t="s">
+        <v>229</v>
+      </c>
+      <c r="D54" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>231</v>
+      </c>
+      <c r="C56" t="s">
+        <v>232</v>
+      </c>
+      <c r="D56" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>234</v>
+      </c>
+      <c r="C58" t="s">
+        <v>235</v>
+      </c>
+      <c r="D58" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D59" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D60" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D61" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D62" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D63" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>242</v>
+      </c>
+      <c r="C65" t="s">
+        <v>243</v>
+      </c>
+      <c r="D65" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>245</v>
+      </c>
+      <c r="C67" t="s">
+        <v>246</v>
+      </c>
+      <c r="D67" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>248</v>
+      </c>
+      <c r="C69" t="s">
+        <v>249</v>
+      </c>
+      <c r="D69" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>251</v>
+      </c>
+      <c r="C71" t="s">
+        <v>252</v>
+      </c>
+      <c r="D71" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>254</v>
+      </c>
+      <c r="C73" t="s">
+        <v>255</v>
+      </c>
+      <c r="D73" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>257</v>
+      </c>
+      <c r="C75" t="s">
+        <v>258</v>
+      </c>
+      <c r="D75" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>260</v>
+      </c>
+      <c r="C77" t="s">
+        <v>261</v>
+      </c>
+      <c r="D77" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D78" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D79" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D80" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D81" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D82" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D83" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D84" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D85" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>271</v>
+      </c>
+      <c r="C87" t="s">
+        <v>272</v>
+      </c>
+      <c r="D87" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D88" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D89" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D90" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D91" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>278</v>
+      </c>
+      <c r="C93" t="s">
+        <v>279</v>
+      </c>
+      <c r="D93" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D94" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D95" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D96" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="97" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D97" t="s">
+        <v>284</v>
       </c>
     </row>
   </sheetData>
@@ -2382,30 +4072,30 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Z207"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:Z323"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A154" workbookViewId="0">
-      <selection activeCell="E158" sqref="E158"/>
+    <sheetView tabSelected="1" topLeftCell="A319" workbookViewId="0">
+      <selection activeCell="B193" sqref="B193:B196"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18" style="10" customWidth="1"/>
-    <col min="2" max="2" width="52" style="15" customWidth="1"/>
-    <col min="3" max="3" width="55.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.28515625" customWidth="1"/>
-    <col min="5" max="5" width="25.85546875" customWidth="1"/>
-    <col min="6" max="6" width="22.42578125" customWidth="1"/>
+    <col min="1" max="1" width="18" style="8" customWidth="1"/>
+    <col min="2" max="2" width="52" style="10" customWidth="1"/>
+    <col min="3" max="3" width="55.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.33203125" customWidth="1"/>
+    <col min="5" max="5" width="25.88671875" customWidth="1"/>
+    <col min="6" max="6" width="22.44140625" customWidth="1"/>
     <col min="7" max="7" width="18" customWidth="1"/>
-    <col min="8" max="8" width="20.7109375" customWidth="1"/>
+    <col min="8" max="8" width="20.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="21" customHeight="1" thickBot="1">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:26" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="9" t="s">
         <v>61</v>
       </c>
       <c r="C1" s="2" t="s">
@@ -2445,11 +4135,11 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" spans="1:26" ht="47.25" customHeight="1">
-      <c r="A2" s="9" t="s">
+    <row r="2" spans="1:26" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="15" t="s">
         <v>69</v>
       </c>
       <c r="C2" s="5" t="s">
@@ -2459,9 +4149,9 @@
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="45">
-      <c r="A3" s="7"/>
-      <c r="B3" s="14"/>
+    <row r="3" spans="1:26" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="12"/>
+      <c r="B3" s="16"/>
       <c r="C3" s="5" t="s">
         <v>71</v>
       </c>
@@ -2469,9 +4159,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="4" spans="1:26" ht="30">
-      <c r="A4" s="7"/>
-      <c r="B4" s="14"/>
+    <row r="4" spans="1:26" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="12"/>
+      <c r="B4" s="16"/>
       <c r="C4" s="4" t="s">
         <v>72</v>
       </c>
@@ -2479,9 +4169,9 @@
         <v>79</v>
       </c>
     </row>
-    <row r="5" spans="1:26" ht="30">
-      <c r="A5" s="7"/>
-      <c r="B5" s="14"/>
+    <row r="5" spans="1:26" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="12"/>
+      <c r="B5" s="16"/>
       <c r="C5" s="4" t="s">
         <v>73</v>
       </c>
@@ -2489,9 +4179,9 @@
         <v>80</v>
       </c>
     </row>
-    <row r="6" spans="1:26" ht="45">
-      <c r="A6" s="7"/>
-      <c r="B6" s="14"/>
+    <row r="6" spans="1:26" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A6" s="12"/>
+      <c r="B6" s="16"/>
       <c r="C6" s="4" t="s">
         <v>74</v>
       </c>
@@ -2499,9 +4189,9 @@
         <v>78</v>
       </c>
     </row>
-    <row r="7" spans="1:26" ht="30">
-      <c r="A7" s="7"/>
-      <c r="B7" s="14"/>
+    <row r="7" spans="1:26" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="12"/>
+      <c r="B7" s="16"/>
       <c r="C7" s="4" t="s">
         <v>75</v>
       </c>
@@ -2509,14 +4199,14 @@
         <v>81</v>
       </c>
     </row>
-    <row r="8" spans="1:26">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C8" s="4"/>
     </row>
-    <row r="9" spans="1:26" ht="45">
-      <c r="A9" s="7" t="s">
+    <row r="9" spans="1:26" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="11" t="s">
         <v>5</v>
       </c>
       <c r="C9" s="5" t="s">
@@ -2526,9 +4216,9 @@
         <v>76</v>
       </c>
     </row>
-    <row r="10" spans="1:26" ht="45">
-      <c r="A10" s="7"/>
-      <c r="B10" s="16"/>
+    <row r="10" spans="1:26" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A10" s="12"/>
+      <c r="B10" s="11"/>
       <c r="C10" s="5" t="s">
         <v>71</v>
       </c>
@@ -2536,9 +4226,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="11" spans="1:26" ht="30">
-      <c r="A11" s="7"/>
-      <c r="B11" s="16"/>
+    <row r="11" spans="1:26" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="12"/>
+      <c r="B11" s="11"/>
       <c r="C11" s="4" t="s">
         <v>72</v>
       </c>
@@ -2546,9 +4236,9 @@
         <v>79</v>
       </c>
     </row>
-    <row r="12" spans="1:26" ht="30">
-      <c r="A12" s="7"/>
-      <c r="B12" s="16"/>
+    <row r="12" spans="1:26" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A12" s="12"/>
+      <c r="B12" s="11"/>
       <c r="C12" s="4" t="s">
         <v>73</v>
       </c>
@@ -2556,9 +4246,9 @@
         <v>80</v>
       </c>
     </row>
-    <row r="13" spans="1:26" ht="45">
-      <c r="A13" s="7"/>
-      <c r="B13" s="16"/>
+    <row r="13" spans="1:26" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A13" s="12"/>
+      <c r="B13" s="11"/>
       <c r="C13" s="4" t="s">
         <v>74</v>
       </c>
@@ -2566,9 +4256,9 @@
         <v>78</v>
       </c>
     </row>
-    <row r="14" spans="1:26" ht="30">
-      <c r="A14" s="7"/>
-      <c r="B14" s="16"/>
+    <row r="14" spans="1:26" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A14" s="12"/>
+      <c r="B14" s="11"/>
       <c r="C14" s="4" t="s">
         <v>75</v>
       </c>
@@ -2576,14 +4266,14 @@
         <v>81</v>
       </c>
     </row>
-    <row r="15" spans="1:26">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C15" s="4"/>
     </row>
-    <row r="16" spans="1:26" ht="45">
-      <c r="A16" s="7" t="s">
+    <row r="16" spans="1:26" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A16" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="B16" s="16" t="s">
+      <c r="B16" s="11" t="s">
         <v>6</v>
       </c>
       <c r="C16" s="5" t="s">
@@ -2593,9 +4283,9 @@
         <v>76</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="45">
-      <c r="A17" s="7"/>
-      <c r="B17" s="16"/>
+    <row r="17" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A17" s="12"/>
+      <c r="B17" s="11"/>
       <c r="C17" s="5" t="s">
         <v>71</v>
       </c>
@@ -2603,9 +4293,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="30">
-      <c r="A18" s="7"/>
-      <c r="B18" s="16"/>
+    <row r="18" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A18" s="12"/>
+      <c r="B18" s="11"/>
       <c r="C18" s="4" t="s">
         <v>84</v>
       </c>
@@ -2613,9 +4303,9 @@
         <v>85</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="30">
-      <c r="A19" s="7"/>
-      <c r="B19" s="16"/>
+    <row r="19" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A19" s="12"/>
+      <c r="B19" s="11"/>
       <c r="C19" s="4" t="s">
         <v>75</v>
       </c>
@@ -2623,11 +4313,11 @@
         <v>86</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="45">
-      <c r="A21" s="7" t="s">
+    <row r="21" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A21" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="B21" s="16" t="s">
+      <c r="B21" s="11" t="s">
         <v>9</v>
       </c>
       <c r="C21" s="5" t="s">
@@ -2637,9 +4327,9 @@
         <v>76</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="45">
-      <c r="A22" s="7"/>
-      <c r="B22" s="16"/>
+    <row r="22" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A22" s="12"/>
+      <c r="B22" s="11"/>
       <c r="C22" s="5" t="s">
         <v>71</v>
       </c>
@@ -2647,18 +4337,18 @@
         <v>77</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="7"/>
-      <c r="B23" s="16"/>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="12"/>
+      <c r="B23" s="11"/>
       <c r="C23" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="45">
-      <c r="A25" s="7" t="s">
+    <row r="25" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A25" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="B25" s="16" t="s">
+      <c r="B25" s="11" t="s">
         <v>17</v>
       </c>
       <c r="C25" s="5" t="s">
@@ -2668,9 +4358,9 @@
         <v>76</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="45">
-      <c r="A26" s="7"/>
-      <c r="B26" s="16"/>
+    <row r="26" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A26" s="12"/>
+      <c r="B26" s="11"/>
       <c r="C26" s="5" t="s">
         <v>71</v>
       </c>
@@ -2678,9 +4368,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="30">
-      <c r="A27" s="7"/>
-      <c r="B27" s="16"/>
+    <row r="27" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A27" s="12"/>
+      <c r="B27" s="11"/>
       <c r="C27" s="5" t="s">
         <v>91</v>
       </c>
@@ -2688,9 +4378,9 @@
         <v>90</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="30">
-      <c r="A28" s="7"/>
-      <c r="B28" s="16"/>
+    <row r="28" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A28" s="12"/>
+      <c r="B28" s="11"/>
       <c r="C28" s="5" t="s">
         <v>92</v>
       </c>
@@ -2698,11 +4388,11 @@
         <v>93</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="45">
-      <c r="A30" s="7" t="s">
+    <row r="30" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A30" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="B30" s="16" t="s">
+      <c r="B30" s="11" t="s">
         <v>38</v>
       </c>
       <c r="C30" s="5" t="s">
@@ -2712,9 +4402,9 @@
         <v>76</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="45">
-      <c r="A31" s="7"/>
-      <c r="B31" s="16"/>
+    <row r="31" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A31" s="12"/>
+      <c r="B31" s="11"/>
       <c r="C31" s="5" t="s">
         <v>71</v>
       </c>
@@ -2722,9 +4412,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="30">
-      <c r="A32" s="7"/>
-      <c r="B32" s="16"/>
+    <row r="32" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A32" s="12"/>
+      <c r="B32" s="11"/>
       <c r="C32" s="5" t="s">
         <v>91</v>
       </c>
@@ -2732,9 +4422,9 @@
         <v>90</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="30">
-      <c r="A33" s="7"/>
-      <c r="B33" s="16"/>
+    <row r="33" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A33" s="12"/>
+      <c r="B33" s="11"/>
       <c r="C33" s="5" t="s">
         <v>96</v>
       </c>
@@ -2742,11 +4432,11 @@
         <v>95</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="45">
-      <c r="A35" s="7" t="s">
+    <row r="35" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A35" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="B35" s="16" t="s">
+      <c r="B35" s="11" t="s">
         <v>40</v>
       </c>
       <c r="C35" s="5" t="s">
@@ -2756,9 +4446,9 @@
         <v>76</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="45">
-      <c r="A36" s="7"/>
-      <c r="B36" s="16"/>
+    <row r="36" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A36" s="12"/>
+      <c r="B36" s="11"/>
       <c r="C36" s="5" t="s">
         <v>71</v>
       </c>
@@ -2766,9 +4456,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="30">
-      <c r="A37" s="7"/>
-      <c r="B37" s="16"/>
+    <row r="37" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A37" s="12"/>
+      <c r="B37" s="11"/>
       <c r="C37" s="5" t="s">
         <v>91</v>
       </c>
@@ -2776,9 +4466,9 @@
         <v>90</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="30">
-      <c r="A38" s="7"/>
-      <c r="B38" s="16"/>
+    <row r="38" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A38" s="12"/>
+      <c r="B38" s="11"/>
       <c r="C38" s="5" t="s">
         <v>101</v>
       </c>
@@ -2786,11 +4476,11 @@
         <v>102</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="45">
-      <c r="A40" s="7" t="s">
+    <row r="40" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A40" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="B40" s="16" t="s">
+      <c r="B40" s="11" t="s">
         <v>39</v>
       </c>
       <c r="C40" s="5" t="s">
@@ -2800,9 +4490,9 @@
         <v>76</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="45">
-      <c r="A41" s="7"/>
-      <c r="B41" s="16"/>
+    <row r="41" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A41" s="12"/>
+      <c r="B41" s="11"/>
       <c r="C41" s="5" t="s">
         <v>71</v>
       </c>
@@ -2810,9 +4500,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="30">
-      <c r="A42" s="7"/>
-      <c r="B42" s="16"/>
+    <row r="42" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A42" s="12"/>
+      <c r="B42" s="11"/>
       <c r="C42" s="5" t="s">
         <v>91</v>
       </c>
@@ -2820,9 +4510,9 @@
         <v>90</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="30">
-      <c r="A43" s="7"/>
-      <c r="B43" s="16"/>
+    <row r="43" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A43" s="12"/>
+      <c r="B43" s="11"/>
       <c r="C43" s="5" t="s">
         <v>98</v>
       </c>
@@ -2830,11 +4520,11 @@
         <v>99</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="45">
-      <c r="A45" s="7" t="s">
+    <row r="45" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A45" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="B45" s="16" t="s">
+      <c r="B45" s="11" t="s">
         <v>16</v>
       </c>
       <c r="C45" s="5" t="s">
@@ -2844,9 +4534,9 @@
         <v>76</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="45">
-      <c r="A46" s="7"/>
-      <c r="B46" s="16"/>
+    <row r="46" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A46" s="12"/>
+      <c r="B46" s="11"/>
       <c r="C46" s="5" t="s">
         <v>71</v>
       </c>
@@ -2854,9 +4544,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="30">
-      <c r="A47" s="7"/>
-      <c r="B47" s="16"/>
+    <row r="47" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A47" s="12"/>
+      <c r="B47" s="11"/>
       <c r="C47" s="5" t="s">
         <v>104</v>
       </c>
@@ -2864,9 +4554,9 @@
         <v>105</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="45">
-      <c r="A48" s="7"/>
-      <c r="B48" s="16"/>
+    <row r="48" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A48" s="12"/>
+      <c r="B48" s="11"/>
       <c r="C48" s="5" t="s">
         <v>106</v>
       </c>
@@ -2874,11 +4564,11 @@
         <v>107</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="45">
-      <c r="A50" s="7" t="s">
+    <row r="50" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A50" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="B50" s="16" t="s">
+      <c r="B50" s="11" t="s">
         <v>10</v>
       </c>
       <c r="C50" s="5" t="s">
@@ -2888,9 +4578,9 @@
         <v>76</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="45">
-      <c r="A51" s="7"/>
-      <c r="B51" s="16"/>
+    <row r="51" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A51" s="12"/>
+      <c r="B51" s="11"/>
       <c r="C51" s="5" t="s">
         <v>71</v>
       </c>
@@ -2898,9 +4588,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="30">
-      <c r="A52" s="7"/>
-      <c r="B52" s="16"/>
+    <row r="52" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A52" s="12"/>
+      <c r="B52" s="11"/>
       <c r="C52" s="5" t="s">
         <v>104</v>
       </c>
@@ -2908,9 +4598,9 @@
         <v>105</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="45">
-      <c r="A53" s="7"/>
-      <c r="B53" s="16"/>
+    <row r="53" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A53" s="12"/>
+      <c r="B53" s="11"/>
       <c r="C53" s="5" t="s">
         <v>109</v>
       </c>
@@ -2918,11 +4608,11 @@
         <v>110</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="45">
-      <c r="A55" s="7" t="s">
+    <row r="55" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A55" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="B55" s="16" t="s">
+      <c r="B55" s="11" t="s">
         <v>15</v>
       </c>
       <c r="C55" s="5" t="s">
@@ -2932,9 +4622,9 @@
         <v>76</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="45">
-      <c r="A56" s="7"/>
-      <c r="B56" s="16"/>
+    <row r="56" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A56" s="12"/>
+      <c r="B56" s="11"/>
       <c r="C56" s="5" t="s">
         <v>71</v>
       </c>
@@ -2942,9 +4632,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="30">
-      <c r="A57" s="7"/>
-      <c r="B57" s="16"/>
+    <row r="57" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A57" s="12"/>
+      <c r="B57" s="11"/>
       <c r="C57" s="5" t="s">
         <v>112</v>
       </c>
@@ -2952,9 +4642,9 @@
         <v>113</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="30">
-      <c r="A58" s="7"/>
-      <c r="B58" s="16"/>
+    <row r="58" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A58" s="12"/>
+      <c r="B58" s="11"/>
       <c r="C58" s="5" t="s">
         <v>115</v>
       </c>
@@ -2962,11 +4652,11 @@
         <v>114</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="45">
-      <c r="A60" s="11" t="s">
+    <row r="60" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A60" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="B60" s="16" t="s">
+      <c r="B60" s="11" t="s">
         <v>14</v>
       </c>
       <c r="C60" s="5" t="s">
@@ -2976,9 +4666,9 @@
         <v>76</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="45">
-      <c r="A61" s="11"/>
-      <c r="B61" s="16"/>
+    <row r="61" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A61" s="13"/>
+      <c r="B61" s="11"/>
       <c r="C61" s="5" t="s">
         <v>71</v>
       </c>
@@ -2986,9 +4676,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="30">
-      <c r="A62" s="11"/>
-      <c r="B62" s="16"/>
+    <row r="62" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A62" s="13"/>
+      <c r="B62" s="11"/>
       <c r="C62" s="5" t="s">
         <v>117</v>
       </c>
@@ -2996,9 +4686,9 @@
         <v>118</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="30">
-      <c r="A63" s="11"/>
-      <c r="B63" s="16"/>
+    <row r="63" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A63" s="13"/>
+      <c r="B63" s="11"/>
       <c r="C63" s="5" t="s">
         <v>115</v>
       </c>
@@ -3006,11 +4696,11 @@
         <v>114</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="45">
-      <c r="A65" s="11" t="s">
+    <row r="65" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A65" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="B65" s="16" t="s">
+      <c r="B65" s="11" t="s">
         <v>19</v>
       </c>
       <c r="C65" s="5" t="s">
@@ -3020,9 +4710,9 @@
         <v>76</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="45">
-      <c r="A66" s="11"/>
-      <c r="B66" s="16"/>
+    <row r="66" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A66" s="13"/>
+      <c r="B66" s="11"/>
       <c r="C66" s="5" t="s">
         <v>71</v>
       </c>
@@ -3030,9 +4720,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="30">
-      <c r="A67" s="11"/>
-      <c r="B67" s="16"/>
+    <row r="67" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A67" s="13"/>
+      <c r="B67" s="11"/>
       <c r="C67" s="5" t="s">
         <v>120</v>
       </c>
@@ -3040,9 +4730,9 @@
         <v>121</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="45">
-      <c r="A68" s="11"/>
-      <c r="B68" s="16"/>
+    <row r="68" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A68" s="13"/>
+      <c r="B68" s="11"/>
       <c r="C68" s="5" t="s">
         <v>122</v>
       </c>
@@ -3050,11 +4740,11 @@
         <v>123</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="45">
-      <c r="A70" s="7" t="s">
+    <row r="70" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A70" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="B70" s="16" t="s">
+      <c r="B70" s="11" t="s">
         <v>20</v>
       </c>
       <c r="C70" s="5" t="s">
@@ -3064,9 +4754,9 @@
         <v>76</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="45">
-      <c r="A71" s="7"/>
-      <c r="B71" s="16"/>
+    <row r="71" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A71" s="12"/>
+      <c r="B71" s="11"/>
       <c r="C71" s="5" t="s">
         <v>71</v>
       </c>
@@ -3074,9 +4764,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="72" spans="1:4" ht="45">
-      <c r="A72" s="7"/>
-      <c r="B72" s="16"/>
+    <row r="72" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A72" s="12"/>
+      <c r="B72" s="11"/>
       <c r="C72" s="5" t="s">
         <v>125</v>
       </c>
@@ -3084,9 +4774,9 @@
         <v>126</v>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="45">
-      <c r="A73" s="7"/>
-      <c r="B73" s="16"/>
+    <row r="73" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A73" s="12"/>
+      <c r="B73" s="11"/>
       <c r="C73" s="5" t="s">
         <v>122</v>
       </c>
@@ -3094,11 +4784,11 @@
         <v>123</v>
       </c>
     </row>
-    <row r="75" spans="1:4" ht="45">
-      <c r="A75" s="7" t="s">
+    <row r="75" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A75" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="B75" s="16" t="s">
+      <c r="B75" s="11" t="s">
         <v>41</v>
       </c>
       <c r="C75" s="5" t="s">
@@ -3108,9 +4798,9 @@
         <v>76</v>
       </c>
     </row>
-    <row r="76" spans="1:4" ht="45">
-      <c r="A76" s="7"/>
-      <c r="B76" s="16"/>
+    <row r="76" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A76" s="12"/>
+      <c r="B76" s="11"/>
       <c r="C76" s="5" t="s">
         <v>71</v>
       </c>
@@ -3118,9 +4808,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="77" spans="1:4" ht="45">
-      <c r="A77" s="7"/>
-      <c r="B77" s="16"/>
+    <row r="77" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A77" s="12"/>
+      <c r="B77" s="11"/>
       <c r="C77" s="5" t="s">
         <v>130</v>
       </c>
@@ -3128,9 +4818,9 @@
         <v>128</v>
       </c>
     </row>
-    <row r="78" spans="1:4" ht="30">
-      <c r="A78" s="7"/>
-      <c r="B78" s="16"/>
+    <row r="78" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A78" s="12"/>
+      <c r="B78" s="11"/>
       <c r="C78" s="5" t="s">
         <v>131</v>
       </c>
@@ -3138,7 +4828,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="79" spans="1:4" ht="30">
+    <row r="79" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C79" s="5" t="s">
         <v>134</v>
       </c>
@@ -3146,11 +4836,11 @@
         <v>133</v>
       </c>
     </row>
-    <row r="80" spans="1:4" ht="45">
-      <c r="A80" s="7" t="s">
+    <row r="80" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A80" s="12" t="s">
         <v>132</v>
       </c>
-      <c r="B80" s="16" t="s">
+      <c r="B80" s="11" t="s">
         <v>22</v>
       </c>
       <c r="C80" s="5" t="s">
@@ -3160,9 +4850,9 @@
         <v>76</v>
       </c>
     </row>
-    <row r="81" spans="1:4" ht="45">
-      <c r="A81" s="7"/>
-      <c r="B81" s="16"/>
+    <row r="81" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A81" s="12"/>
+      <c r="B81" s="11"/>
       <c r="C81" s="5" t="s">
         <v>71</v>
       </c>
@@ -3170,9 +4860,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="82" spans="1:4" ht="30">
-      <c r="A82" s="7"/>
-      <c r="B82" s="16"/>
+    <row r="82" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A82" s="12"/>
+      <c r="B82" s="11"/>
       <c r="C82" s="5" t="s">
         <v>136</v>
       </c>
@@ -3180,9 +4870,9 @@
         <v>137</v>
       </c>
     </row>
-    <row r="83" spans="1:4" ht="30">
-      <c r="A83" s="7"/>
-      <c r="B83" s="16"/>
+    <row r="83" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A83" s="12"/>
+      <c r="B83" s="11"/>
       <c r="C83" s="5" t="s">
         <v>135</v>
       </c>
@@ -3190,9 +4880,9 @@
         <v>138</v>
       </c>
     </row>
-    <row r="84" spans="1:4" ht="30">
-      <c r="A84" s="7"/>
-      <c r="B84" s="16"/>
+    <row r="84" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A84" s="12"/>
+      <c r="B84" s="11"/>
       <c r="C84" s="5" t="s">
         <v>134</v>
       </c>
@@ -3200,11 +4890,11 @@
         <v>139</v>
       </c>
     </row>
-    <row r="85" spans="1:4" ht="45">
-      <c r="A85" s="7" t="s">
+    <row r="85" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A85" s="12" t="s">
         <v>140</v>
       </c>
-      <c r="B85" s="16" t="s">
+      <c r="B85" s="11" t="s">
         <v>26</v>
       </c>
       <c r="C85" s="5" t="s">
@@ -3214,9 +4904,9 @@
         <v>76</v>
       </c>
     </row>
-    <row r="86" spans="1:4" ht="45">
-      <c r="A86" s="7"/>
-      <c r="B86" s="16"/>
+    <row r="86" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A86" s="12"/>
+      <c r="B86" s="11"/>
       <c r="C86" s="5" t="s">
         <v>71</v>
       </c>
@@ -3224,9 +4914,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="87" spans="1:4" ht="30">
-      <c r="A87" s="7"/>
-      <c r="B87" s="16"/>
+    <row r="87" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A87" s="12"/>
+      <c r="B87" s="11"/>
       <c r="C87" s="5" t="s">
         <v>143</v>
       </c>
@@ -3234,11 +4924,11 @@
         <v>141</v>
       </c>
     </row>
-    <row r="89" spans="1:4" ht="45">
-      <c r="A89" s="7" t="s">
+    <row r="89" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A89" s="12" t="s">
         <v>142</v>
       </c>
-      <c r="B89" s="16" t="s">
+      <c r="B89" s="11" t="s">
         <v>23</v>
       </c>
       <c r="C89" s="5" t="s">
@@ -3248,9 +4938,9 @@
         <v>76</v>
       </c>
     </row>
-    <row r="90" spans="1:4" ht="45">
-      <c r="A90" s="7"/>
-      <c r="B90" s="16"/>
+    <row r="90" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A90" s="12"/>
+      <c r="B90" s="11"/>
       <c r="C90" s="5" t="s">
         <v>71</v>
       </c>
@@ -3258,9 +4948,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="91" spans="1:4" ht="30">
-      <c r="A91" s="7"/>
-      <c r="B91" s="16"/>
+    <row r="91" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A91" s="12"/>
+      <c r="B91" s="11"/>
       <c r="C91" s="5" t="s">
         <v>143</v>
       </c>
@@ -3268,9 +4958,9 @@
         <v>141</v>
       </c>
     </row>
-    <row r="92" spans="1:4" ht="45">
-      <c r="A92" s="7"/>
-      <c r="B92" s="16"/>
+    <row r="92" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A92" s="12"/>
+      <c r="B92" s="11"/>
       <c r="C92" s="5" t="s">
         <v>147</v>
       </c>
@@ -3278,9 +4968,9 @@
         <v>144</v>
       </c>
     </row>
-    <row r="93" spans="1:4" ht="30">
-      <c r="A93" s="7"/>
-      <c r="B93" s="16"/>
+    <row r="93" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A93" s="12"/>
+      <c r="B93" s="11"/>
       <c r="C93" s="5" t="s">
         <v>148</v>
       </c>
@@ -3288,9 +4978,9 @@
         <v>145</v>
       </c>
     </row>
-    <row r="94" spans="1:4" ht="30">
-      <c r="A94" s="7"/>
-      <c r="B94" s="16"/>
+    <row r="94" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A94" s="12"/>
+      <c r="B94" s="11"/>
       <c r="C94" s="5" t="s">
         <v>149</v>
       </c>
@@ -3298,9 +4988,9 @@
         <v>146</v>
       </c>
     </row>
-    <row r="95" spans="1:4" ht="60">
-      <c r="A95" s="7"/>
-      <c r="B95" s="16"/>
+    <row r="95" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A95" s="12"/>
+      <c r="B95" s="11"/>
       <c r="C95" s="5" t="s">
         <v>151</v>
       </c>
@@ -3308,11 +4998,11 @@
         <v>150</v>
       </c>
     </row>
-    <row r="97" spans="1:4" ht="45">
-      <c r="A97" s="7" t="s">
+    <row r="97" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A97" s="12" t="s">
         <v>152</v>
       </c>
-      <c r="B97" s="16" t="s">
+      <c r="B97" s="11" t="s">
         <v>42</v>
       </c>
       <c r="C97" s="5" t="s">
@@ -3322,9 +5012,9 @@
         <v>76</v>
       </c>
     </row>
-    <row r="98" spans="1:4" ht="45">
-      <c r="A98" s="7"/>
-      <c r="B98" s="16"/>
+    <row r="98" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A98" s="12"/>
+      <c r="B98" s="11"/>
       <c r="C98" s="5" t="s">
         <v>71</v>
       </c>
@@ -3332,9 +5022,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="99" spans="1:4" ht="30">
-      <c r="A99" s="7"/>
-      <c r="B99" s="16"/>
+    <row r="99" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A99" s="12"/>
+      <c r="B99" s="11"/>
       <c r="C99" s="5" t="s">
         <v>143</v>
       </c>
@@ -3342,9 +5032,9 @@
         <v>141</v>
       </c>
     </row>
-    <row r="100" spans="1:4" ht="45">
-      <c r="A100" s="7"/>
-      <c r="B100" s="16"/>
+    <row r="100" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A100" s="12"/>
+      <c r="B100" s="11"/>
       <c r="C100" s="5" t="s">
         <v>147</v>
       </c>
@@ -3352,9 +5042,9 @@
         <v>144</v>
       </c>
     </row>
-    <row r="101" spans="1:4" ht="30">
-      <c r="A101" s="7"/>
-      <c r="B101" s="16"/>
+    <row r="101" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A101" s="12"/>
+      <c r="B101" s="11"/>
       <c r="C101" s="5" t="s">
         <v>148</v>
       </c>
@@ -3362,9 +5052,9 @@
         <v>145</v>
       </c>
     </row>
-    <row r="102" spans="1:4" ht="30">
-      <c r="A102" s="7"/>
-      <c r="B102" s="16"/>
+    <row r="102" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A102" s="12"/>
+      <c r="B102" s="11"/>
       <c r="C102" s="5" t="s">
         <v>149</v>
       </c>
@@ -3372,9 +5062,9 @@
         <v>146</v>
       </c>
     </row>
-    <row r="103" spans="1:4" ht="75">
-      <c r="A103" s="7"/>
-      <c r="B103" s="16"/>
+    <row r="103" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A103" s="12"/>
+      <c r="B103" s="11"/>
       <c r="C103" s="5" t="s">
         <v>153</v>
       </c>
@@ -3382,11 +5072,11 @@
         <v>154</v>
       </c>
     </row>
-    <row r="105" spans="1:4" ht="45">
-      <c r="A105" s="7" t="s">
+    <row r="105" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A105" s="12" t="s">
         <v>155</v>
       </c>
-      <c r="B105" s="16" t="s">
+      <c r="B105" s="11" t="s">
         <v>24</v>
       </c>
       <c r="C105" s="5" t="s">
@@ -3396,9 +5086,9 @@
         <v>76</v>
       </c>
     </row>
-    <row r="106" spans="1:4" ht="45">
-      <c r="A106" s="7"/>
-      <c r="B106" s="16"/>
+    <row r="106" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A106" s="12"/>
+      <c r="B106" s="11"/>
       <c r="C106" s="5" t="s">
         <v>71</v>
       </c>
@@ -3406,9 +5096,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="107" spans="1:4" ht="30">
-      <c r="A107" s="7"/>
-      <c r="B107" s="16"/>
+    <row r="107" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A107" s="12"/>
+      <c r="B107" s="11"/>
       <c r="C107" s="5" t="s">
         <v>143</v>
       </c>
@@ -3416,9 +5106,9 @@
         <v>141</v>
       </c>
     </row>
-    <row r="108" spans="1:4" ht="30">
-      <c r="A108" s="7"/>
-      <c r="B108" s="16"/>
+    <row r="108" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A108" s="12"/>
+      <c r="B108" s="11"/>
       <c r="C108" s="5" t="s">
         <v>156</v>
       </c>
@@ -3426,9 +5116,9 @@
         <v>157</v>
       </c>
     </row>
-    <row r="109" spans="1:4" ht="30">
-      <c r="A109" s="7"/>
-      <c r="B109" s="16"/>
+    <row r="109" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A109" s="12"/>
+      <c r="B109" s="11"/>
       <c r="C109" s="5" t="s">
         <v>158</v>
       </c>
@@ -3436,9 +5126,9 @@
         <v>159</v>
       </c>
     </row>
-    <row r="110" spans="1:4" ht="30">
-      <c r="A110" s="7"/>
-      <c r="B110" s="16"/>
+    <row r="110" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A110" s="12"/>
+      <c r="B110" s="11"/>
       <c r="C110" s="5" t="s">
         <v>160</v>
       </c>
@@ -3446,11 +5136,11 @@
         <v>161</v>
       </c>
     </row>
-    <row r="112" spans="1:4" ht="45">
-      <c r="A112" s="7" t="s">
+    <row r="112" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A112" s="12" t="s">
         <v>171</v>
       </c>
-      <c r="B112" s="16" t="s">
+      <c r="B112" s="11" t="s">
         <v>162</v>
       </c>
       <c r="C112" s="5" t="s">
@@ -3460,9 +5150,9 @@
         <v>76</v>
       </c>
     </row>
-    <row r="113" spans="1:4" ht="45">
-      <c r="A113" s="7"/>
-      <c r="B113" s="16"/>
+    <row r="113" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A113" s="12"/>
+      <c r="B113" s="11"/>
       <c r="C113" s="5" t="s">
         <v>71</v>
       </c>
@@ -3470,9 +5160,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="114" spans="1:4" ht="30">
-      <c r="A114" s="7"/>
-      <c r="B114" s="16"/>
+    <row r="114" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A114" s="12"/>
+      <c r="B114" s="11"/>
       <c r="C114" s="5" t="s">
         <v>143</v>
       </c>
@@ -3480,9 +5170,9 @@
         <v>141</v>
       </c>
     </row>
-    <row r="115" spans="1:4" ht="30">
-      <c r="A115" s="7"/>
-      <c r="B115" s="16"/>
+    <row r="115" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A115" s="12"/>
+      <c r="B115" s="11"/>
       <c r="C115" s="5" t="s">
         <v>170</v>
       </c>
@@ -3490,9 +5180,9 @@
         <v>157</v>
       </c>
     </row>
-    <row r="116" spans="1:4" ht="30">
-      <c r="A116" s="7"/>
-      <c r="B116" s="16"/>
+    <row r="116" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A116" s="12"/>
+      <c r="B116" s="11"/>
       <c r="C116" s="5" t="s">
         <v>168</v>
       </c>
@@ -3500,9 +5190,9 @@
         <v>159</v>
       </c>
     </row>
-    <row r="117" spans="1:4" ht="60">
-      <c r="A117" s="7"/>
-      <c r="B117" s="16"/>
+    <row r="117" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A117" s="12"/>
+      <c r="B117" s="11"/>
       <c r="C117" s="5" t="s">
         <v>169</v>
       </c>
@@ -3510,11 +5200,11 @@
         <v>167</v>
       </c>
     </row>
-    <row r="119" spans="1:4" ht="45">
-      <c r="A119" s="7" t="s">
+    <row r="119" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A119" s="12" t="s">
         <v>172</v>
       </c>
-      <c r="B119" s="16" t="s">
+      <c r="B119" s="11" t="s">
         <v>166</v>
       </c>
       <c r="C119" s="5" t="s">
@@ -3524,9 +5214,9 @@
         <v>76</v>
       </c>
     </row>
-    <row r="120" spans="1:4" ht="45">
-      <c r="A120" s="7"/>
-      <c r="B120" s="16"/>
+    <row r="120" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A120" s="12"/>
+      <c r="B120" s="11"/>
       <c r="C120" s="5" t="s">
         <v>71</v>
       </c>
@@ -3534,9 +5224,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="121" spans="1:4" ht="30">
-      <c r="A121" s="7"/>
-      <c r="B121" s="16"/>
+    <row r="121" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A121" s="12"/>
+      <c r="B121" s="11"/>
       <c r="C121" s="5" t="s">
         <v>143</v>
       </c>
@@ -3544,9 +5234,9 @@
         <v>141</v>
       </c>
     </row>
-    <row r="122" spans="1:4" ht="75">
-      <c r="A122" s="7"/>
-      <c r="B122" s="16"/>
+    <row r="122" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+      <c r="A122" s="12"/>
+      <c r="B122" s="11"/>
       <c r="C122" s="5" t="s">
         <v>174</v>
       </c>
@@ -3554,11 +5244,11 @@
         <v>173</v>
       </c>
     </row>
-    <row r="124" spans="1:4" ht="45">
-      <c r="A124" s="7" t="s">
+    <row r="124" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A124" s="12" t="s">
         <v>175</v>
       </c>
-      <c r="B124" s="16" t="s">
+      <c r="B124" s="11" t="s">
         <v>25</v>
       </c>
       <c r="C124" s="5" t="s">
@@ -3568,9 +5258,9 @@
         <v>76</v>
       </c>
     </row>
-    <row r="125" spans="1:4" ht="45">
-      <c r="A125" s="7"/>
-      <c r="B125" s="16"/>
+    <row r="125" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A125" s="12"/>
+      <c r="B125" s="11"/>
       <c r="C125" s="5" t="s">
         <v>71</v>
       </c>
@@ -3578,9 +5268,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="126" spans="1:4" ht="30">
-      <c r="A126" s="7"/>
-      <c r="B126" s="16"/>
+    <row r="126" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A126" s="12"/>
+      <c r="B126" s="11"/>
       <c r="C126" s="5" t="s">
         <v>176</v>
       </c>
@@ -3588,11 +5278,11 @@
         <v>177</v>
       </c>
     </row>
-    <row r="127" spans="1:4" ht="45">
-      <c r="A127" s="7" t="s">
+    <row r="127" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A127" s="12" t="s">
         <v>183</v>
       </c>
-      <c r="B127" s="16" t="s">
+      <c r="B127" s="11" t="s">
         <v>27</v>
       </c>
       <c r="C127" s="5" t="s">
@@ -3602,9 +5292,9 @@
         <v>76</v>
       </c>
     </row>
-    <row r="128" spans="1:4" ht="45">
-      <c r="A128" s="7"/>
-      <c r="B128" s="16"/>
+    <row r="128" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A128" s="12"/>
+      <c r="B128" s="11"/>
       <c r="C128" s="5" t="s">
         <v>71</v>
       </c>
@@ -3612,9 +5302,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="129" spans="1:4" ht="30">
-      <c r="A129" s="7"/>
-      <c r="B129" s="16"/>
+    <row r="129" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A129" s="12"/>
+      <c r="B129" s="11"/>
       <c r="C129" s="5" t="s">
         <v>176</v>
       </c>
@@ -3622,9 +5312,9 @@
         <v>177</v>
       </c>
     </row>
-    <row r="130" spans="1:4" ht="45">
-      <c r="A130" s="7"/>
-      <c r="B130" s="16"/>
+    <row r="130" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A130" s="12"/>
+      <c r="B130" s="11"/>
       <c r="C130" s="5" t="s">
         <v>147</v>
       </c>
@@ -3632,9 +5322,9 @@
         <v>144</v>
       </c>
     </row>
-    <row r="131" spans="1:4" ht="30">
-      <c r="A131" s="7"/>
-      <c r="B131" s="16"/>
+    <row r="131" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A131" s="12"/>
+      <c r="B131" s="11"/>
       <c r="C131" s="5" t="s">
         <v>178</v>
       </c>
@@ -3642,9 +5332,9 @@
         <v>179</v>
       </c>
     </row>
-    <row r="132" spans="1:4" ht="30">
-      <c r="A132" s="7"/>
-      <c r="B132" s="16"/>
+    <row r="132" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A132" s="12"/>
+      <c r="B132" s="11"/>
       <c r="C132" s="5" t="s">
         <v>180</v>
       </c>
@@ -3652,9 +5342,9 @@
         <v>181</v>
       </c>
     </row>
-    <row r="133" spans="1:4" ht="60">
-      <c r="A133" s="7"/>
-      <c r="B133" s="16"/>
+    <row r="133" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A133" s="12"/>
+      <c r="B133" s="11"/>
       <c r="C133" s="5" t="s">
         <v>151</v>
       </c>
@@ -3662,11 +5352,11 @@
         <v>182</v>
       </c>
     </row>
-    <row r="135" spans="1:4" ht="45">
-      <c r="A135" s="7" t="s">
+    <row r="135" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A135" s="12" t="s">
         <v>186</v>
       </c>
-      <c r="B135" s="16" t="s">
+      <c r="B135" s="11" t="s">
         <v>43</v>
       </c>
       <c r="C135" s="5" t="s">
@@ -3676,9 +5366,9 @@
         <v>76</v>
       </c>
     </row>
-    <row r="136" spans="1:4" ht="45">
-      <c r="A136" s="7"/>
-      <c r="B136" s="16"/>
+    <row r="136" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A136" s="12"/>
+      <c r="B136" s="11"/>
       <c r="C136" s="5" t="s">
         <v>71</v>
       </c>
@@ -3686,9 +5376,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="137" spans="1:4" ht="30">
-      <c r="A137" s="7"/>
-      <c r="B137" s="16"/>
+    <row r="137" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A137" s="12"/>
+      <c r="B137" s="11"/>
       <c r="C137" s="5" t="s">
         <v>176</v>
       </c>
@@ -3696,9 +5386,9 @@
         <v>177</v>
       </c>
     </row>
-    <row r="138" spans="1:4" ht="45">
-      <c r="A138" s="7"/>
-      <c r="B138" s="16"/>
+    <row r="138" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A138" s="12"/>
+      <c r="B138" s="11"/>
       <c r="C138" s="5" t="s">
         <v>147</v>
       </c>
@@ -3706,9 +5396,9 @@
         <v>144</v>
       </c>
     </row>
-    <row r="139" spans="1:4" ht="30">
-      <c r="A139" s="7"/>
-      <c r="B139" s="16"/>
+    <row r="139" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A139" s="12"/>
+      <c r="B139" s="11"/>
       <c r="C139" s="5" t="s">
         <v>178</v>
       </c>
@@ -3716,9 +5406,9 @@
         <v>179</v>
       </c>
     </row>
-    <row r="140" spans="1:4" ht="30">
-      <c r="A140" s="7"/>
-      <c r="B140" s="16"/>
+    <row r="140" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A140" s="12"/>
+      <c r="B140" s="11"/>
       <c r="C140" s="5" t="s">
         <v>180</v>
       </c>
@@ -3726,9 +5416,9 @@
         <v>181</v>
       </c>
     </row>
-    <row r="141" spans="1:4" ht="30">
-      <c r="A141" s="7"/>
-      <c r="B141" s="16"/>
+    <row r="141" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A141" s="12"/>
+      <c r="B141" s="11"/>
       <c r="C141" s="5" t="s">
         <v>184</v>
       </c>
@@ -3736,11 +5426,11 @@
         <v>185</v>
       </c>
     </row>
-    <row r="143" spans="1:4" ht="45">
-      <c r="A143" s="7" t="s">
+    <row r="143" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A143" s="12" t="s">
         <v>187</v>
       </c>
-      <c r="B143" s="16" t="s">
+      <c r="B143" s="11" t="s">
         <v>28</v>
       </c>
       <c r="C143" s="5" t="s">
@@ -3750,9 +5440,9 @@
         <v>76</v>
       </c>
     </row>
-    <row r="144" spans="1:4" ht="45">
-      <c r="A144" s="7"/>
-      <c r="B144" s="16"/>
+    <row r="144" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A144" s="12"/>
+      <c r="B144" s="11"/>
       <c r="C144" s="5" t="s">
         <v>71</v>
       </c>
@@ -3760,9 +5450,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="145" spans="1:4" ht="30">
-      <c r="A145" s="7"/>
-      <c r="B145" s="16"/>
+    <row r="145" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A145" s="12"/>
+      <c r="B145" s="11"/>
       <c r="C145" s="5" t="s">
         <v>176</v>
       </c>
@@ -3770,9 +5460,9 @@
         <v>177</v>
       </c>
     </row>
-    <row r="146" spans="1:4" ht="30">
-      <c r="A146" s="7"/>
-      <c r="B146" s="16"/>
+    <row r="146" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A146" s="12"/>
+      <c r="B146" s="11"/>
       <c r="C146" s="5" t="s">
         <v>156</v>
       </c>
@@ -3780,9 +5470,9 @@
         <v>157</v>
       </c>
     </row>
-    <row r="147" spans="1:4" ht="30">
-      <c r="A147" s="7"/>
-      <c r="B147" s="16"/>
+    <row r="147" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A147" s="12"/>
+      <c r="B147" s="11"/>
       <c r="C147" s="5" t="s">
         <v>158</v>
       </c>
@@ -3790,9 +5480,9 @@
         <v>159</v>
       </c>
     </row>
-    <row r="148" spans="1:4" ht="30">
-      <c r="A148" s="7"/>
-      <c r="B148" s="16"/>
+    <row r="148" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A148" s="12"/>
+      <c r="B148" s="11"/>
       <c r="C148" s="5" t="s">
         <v>160</v>
       </c>
@@ -3800,11 +5490,11 @@
         <v>188</v>
       </c>
     </row>
-    <row r="150" spans="1:4" ht="45">
-      <c r="A150" s="7" t="s">
+    <row r="150" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A150" s="12" t="s">
         <v>189</v>
       </c>
-      <c r="B150" s="16" t="s">
+      <c r="B150" s="11" t="s">
         <v>29</v>
       </c>
       <c r="C150" s="5" t="s">
@@ -3814,9 +5504,9 @@
         <v>76</v>
       </c>
     </row>
-    <row r="151" spans="1:4" ht="45">
-      <c r="A151" s="7"/>
-      <c r="B151" s="16"/>
+    <row r="151" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A151" s="12"/>
+      <c r="B151" s="11"/>
       <c r="C151" s="5" t="s">
         <v>71</v>
       </c>
@@ -3824,9 +5514,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="152" spans="1:4" ht="30">
-      <c r="A152" s="7"/>
-      <c r="B152" s="16"/>
+    <row r="152" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A152" s="12"/>
+      <c r="B152" s="11"/>
       <c r="C152" s="5" t="s">
         <v>176</v>
       </c>
@@ -3834,9 +5524,9 @@
         <v>177</v>
       </c>
     </row>
-    <row r="153" spans="1:4" ht="60">
-      <c r="A153" s="7"/>
-      <c r="B153" s="16"/>
+    <row r="153" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A153" s="12"/>
+      <c r="B153" s="11"/>
       <c r="C153" s="5" t="s">
         <v>174</v>
       </c>
@@ -3844,11 +5534,11 @@
         <v>190</v>
       </c>
     </row>
-    <row r="155" spans="1:4" ht="45">
-      <c r="A155" s="7" t="s">
+    <row r="155" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A155" s="12" t="s">
         <v>191</v>
       </c>
-      <c r="B155" s="16" t="s">
+      <c r="B155" s="11" t="s">
         <v>30</v>
       </c>
       <c r="C155" s="5" t="s">
@@ -3858,9 +5548,9 @@
         <v>76</v>
       </c>
     </row>
-    <row r="156" spans="1:4" ht="45">
-      <c r="A156" s="7"/>
-      <c r="B156" s="16"/>
+    <row r="156" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A156" s="12"/>
+      <c r="B156" s="11"/>
       <c r="C156" s="5" t="s">
         <v>222</v>
       </c>
@@ -3868,9 +5558,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="157" spans="1:4" ht="30">
-      <c r="A157" s="7"/>
-      <c r="B157" s="16"/>
+    <row r="157" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A157" s="12"/>
+      <c r="B157" s="11"/>
       <c r="C157" s="5" t="s">
         <v>192</v>
       </c>
@@ -3878,11 +5568,11 @@
         <v>193</v>
       </c>
     </row>
-    <row r="159" spans="1:4" ht="45">
-      <c r="A159" s="7" t="s">
+    <row r="159" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A159" s="12" t="s">
         <v>194</v>
       </c>
-      <c r="B159" s="16" t="s">
+      <c r="B159" s="11" t="s">
         <v>31</v>
       </c>
       <c r="C159" s="5" t="s">
@@ -3892,9 +5582,9 @@
         <v>76</v>
       </c>
     </row>
-    <row r="160" spans="1:4" ht="45">
-      <c r="A160" s="7"/>
-      <c r="B160" s="16"/>
+    <row r="160" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A160" s="12"/>
+      <c r="B160" s="11"/>
       <c r="C160" s="5" t="s">
         <v>71</v>
       </c>
@@ -3902,9 +5592,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="161" spans="1:4" ht="30">
-      <c r="A161" s="7"/>
-      <c r="B161" s="16"/>
+    <row r="161" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A161" s="12"/>
+      <c r="B161" s="11"/>
       <c r="C161" s="5" t="s">
         <v>192</v>
       </c>
@@ -3912,9 +5602,9 @@
         <v>193</v>
       </c>
     </row>
-    <row r="162" spans="1:4" ht="45">
-      <c r="A162" s="7"/>
-      <c r="B162" s="16"/>
+    <row r="162" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A162" s="12"/>
+      <c r="B162" s="11"/>
       <c r="C162" s="5" t="s">
         <v>147</v>
       </c>
@@ -3922,9 +5612,9 @@
         <v>144</v>
       </c>
     </row>
-    <row r="163" spans="1:4" ht="45">
-      <c r="A163" s="7"/>
-      <c r="B163" s="16"/>
+    <row r="163" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A163" s="12"/>
+      <c r="B163" s="11"/>
       <c r="C163" s="5" t="s">
         <v>195</v>
       </c>
@@ -3932,9 +5622,9 @@
         <v>196</v>
       </c>
     </row>
-    <row r="164" spans="1:4" ht="60">
-      <c r="A164" s="7"/>
-      <c r="B164" s="16"/>
+    <row r="164" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A164" s="12"/>
+      <c r="B164" s="11"/>
       <c r="C164" s="5" t="s">
         <v>197</v>
       </c>
@@ -3942,11 +5632,11 @@
         <v>198</v>
       </c>
     </row>
-    <row r="166" spans="1:4" ht="45">
-      <c r="A166" s="7" t="s">
+    <row r="166" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A166" s="12" t="s">
         <v>199</v>
       </c>
-      <c r="B166" s="16" t="s">
+      <c r="B166" s="11" t="s">
         <v>44</v>
       </c>
       <c r="C166" s="5" t="s">
@@ -3956,9 +5646,9 @@
         <v>76</v>
       </c>
     </row>
-    <row r="167" spans="1:4" ht="45">
-      <c r="A167" s="7"/>
-      <c r="B167" s="16"/>
+    <row r="167" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A167" s="12"/>
+      <c r="B167" s="11"/>
       <c r="C167" s="5" t="s">
         <v>71</v>
       </c>
@@ -3966,9 +5656,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="168" spans="1:4" ht="30">
-      <c r="A168" s="7"/>
-      <c r="B168" s="16"/>
+    <row r="168" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A168" s="12"/>
+      <c r="B168" s="11"/>
       <c r="C168" s="5" t="s">
         <v>192</v>
       </c>
@@ -3976,9 +5666,9 @@
         <v>193</v>
       </c>
     </row>
-    <row r="169" spans="1:4" ht="30">
-      <c r="A169" s="7"/>
-      <c r="B169" s="16"/>
+    <row r="169" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A169" s="12"/>
+      <c r="B169" s="11"/>
       <c r="C169" s="5" t="s">
         <v>200</v>
       </c>
@@ -3986,11 +5676,11 @@
         <v>185</v>
       </c>
     </row>
-    <row r="171" spans="1:4" ht="45">
-      <c r="A171" s="7" t="s">
+    <row r="171" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A171" s="12" t="s">
         <v>201</v>
       </c>
-      <c r="B171" s="16" t="s">
+      <c r="B171" s="11" t="s">
         <v>32</v>
       </c>
       <c r="C171" s="5" t="s">
@@ -4000,9 +5690,9 @@
         <v>76</v>
       </c>
     </row>
-    <row r="172" spans="1:4" ht="45">
-      <c r="A172" s="7"/>
-      <c r="B172" s="16"/>
+    <row r="172" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A172" s="12"/>
+      <c r="B172" s="11"/>
       <c r="C172" s="5" t="s">
         <v>71</v>
       </c>
@@ -4010,9 +5700,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="173" spans="1:4" ht="30">
-      <c r="A173" s="7"/>
-      <c r="B173" s="16"/>
+    <row r="173" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A173" s="12"/>
+      <c r="B173" s="11"/>
       <c r="C173" s="5" t="s">
         <v>192</v>
       </c>
@@ -4020,9 +5710,9 @@
         <v>193</v>
       </c>
     </row>
-    <row r="174" spans="1:4" ht="30">
-      <c r="A174" s="7"/>
-      <c r="B174" s="16"/>
+    <row r="174" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A174" s="12"/>
+      <c r="B174" s="11"/>
       <c r="C174" s="5" t="s">
         <v>203</v>
       </c>
@@ -4030,9 +5720,9 @@
         <v>157</v>
       </c>
     </row>
-    <row r="175" spans="1:4" ht="30">
-      <c r="A175" s="7"/>
-      <c r="B175" s="16"/>
+    <row r="175" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A175" s="12"/>
+      <c r="B175" s="11"/>
       <c r="C175" s="5" t="s">
         <v>168</v>
       </c>
@@ -4040,9 +5730,9 @@
         <v>159</v>
       </c>
     </row>
-    <row r="176" spans="1:4" ht="60">
-      <c r="A176" s="7"/>
-      <c r="B176" s="16"/>
+    <row r="176" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A176" s="12"/>
+      <c r="B176" s="11"/>
       <c r="C176" s="5" t="s">
         <v>204</v>
       </c>
@@ -4050,11 +5740,11 @@
         <v>202</v>
       </c>
     </row>
-    <row r="178" spans="1:4" ht="45">
-      <c r="A178" s="7" t="s">
+    <row r="178" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A178" s="12" t="s">
         <v>205</v>
       </c>
-      <c r="B178" s="16" t="s">
+      <c r="B178" s="11" t="s">
         <v>33</v>
       </c>
       <c r="C178" s="5" t="s">
@@ -4064,9 +5754,9 @@
         <v>76</v>
       </c>
     </row>
-    <row r="179" spans="1:4" ht="45">
-      <c r="A179" s="7"/>
-      <c r="B179" s="16"/>
+    <row r="179" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A179" s="12"/>
+      <c r="B179" s="11"/>
       <c r="C179" s="5" t="s">
         <v>71</v>
       </c>
@@ -4074,9 +5764,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="180" spans="1:4" ht="30">
-      <c r="A180" s="7"/>
-      <c r="B180" s="16"/>
+    <row r="180" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A180" s="12"/>
+      <c r="B180" s="11"/>
       <c r="C180" s="5" t="s">
         <v>192</v>
       </c>
@@ -4084,9 +5774,9 @@
         <v>193</v>
       </c>
     </row>
-    <row r="181" spans="1:4" ht="30">
-      <c r="A181" s="7"/>
-      <c r="B181" s="16"/>
+    <row r="181" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A181" s="12"/>
+      <c r="B181" s="11"/>
       <c r="C181" s="5" t="s">
         <v>206</v>
       </c>
@@ -4094,11 +5784,11 @@
         <v>207</v>
       </c>
     </row>
-    <row r="183" spans="1:4" ht="45">
-      <c r="A183" s="7" t="s">
+    <row r="183" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A183" s="12" t="s">
         <v>208</v>
       </c>
-      <c r="B183" s="16" t="s">
+      <c r="B183" s="11" t="s">
         <v>34</v>
       </c>
       <c r="C183" s="5" t="s">
@@ -4108,9 +5798,9 @@
         <v>76</v>
       </c>
     </row>
-    <row r="184" spans="1:4" ht="45">
-      <c r="A184" s="7"/>
-      <c r="B184" s="16"/>
+    <row r="184" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A184" s="12"/>
+      <c r="B184" s="11"/>
       <c r="C184" s="5" t="s">
         <v>71</v>
       </c>
@@ -4118,9 +5808,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="185" spans="1:4" ht="45">
-      <c r="A185" s="7"/>
-      <c r="B185" s="16"/>
+    <row r="185" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A185" s="12"/>
+      <c r="B185" s="11"/>
       <c r="C185" s="5" t="s">
         <v>209</v>
       </c>
@@ -4128,11 +5818,11 @@
         <v>210</v>
       </c>
     </row>
-    <row r="186" spans="1:4" ht="45">
-      <c r="A186" s="7" t="s">
+    <row r="186" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A186" s="12" t="s">
         <v>211</v>
       </c>
-      <c r="B186" s="16" t="s">
+      <c r="B186" s="11" t="s">
         <v>35</v>
       </c>
       <c r="C186" s="5" t="s">
@@ -4142,9 +5832,9 @@
         <v>76</v>
       </c>
     </row>
-    <row r="187" spans="1:4" ht="45">
-      <c r="A187" s="7"/>
-      <c r="B187" s="16"/>
+    <row r="187" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A187" s="12"/>
+      <c r="B187" s="11"/>
       <c r="C187" s="5" t="s">
         <v>71</v>
       </c>
@@ -4152,9 +5842,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="188" spans="1:4" ht="45">
-      <c r="A188" s="7"/>
-      <c r="B188" s="16"/>
+    <row r="188" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A188" s="12"/>
+      <c r="B188" s="11"/>
       <c r="C188" s="5" t="s">
         <v>209</v>
       </c>
@@ -4162,9 +5852,9 @@
         <v>210</v>
       </c>
     </row>
-    <row r="189" spans="1:4" ht="45">
-      <c r="A189" s="7"/>
-      <c r="B189" s="16"/>
+    <row r="189" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A189" s="12"/>
+      <c r="B189" s="11"/>
       <c r="C189" s="5" t="s">
         <v>147</v>
       </c>
@@ -4172,9 +5862,9 @@
         <v>144</v>
       </c>
     </row>
-    <row r="190" spans="1:4" ht="45">
-      <c r="A190" s="7"/>
-      <c r="B190" s="16"/>
+    <row r="190" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A190" s="12"/>
+      <c r="B190" s="11"/>
       <c r="C190" s="5" t="s">
         <v>214</v>
       </c>
@@ -4182,9 +5872,9 @@
         <v>196</v>
       </c>
     </row>
-    <row r="191" spans="1:4" ht="60">
-      <c r="A191" s="7"/>
-      <c r="B191" s="16"/>
+    <row r="191" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A191" s="12"/>
+      <c r="B191" s="11"/>
       <c r="C191" s="5" t="s">
         <v>213</v>
       </c>
@@ -4192,11 +5882,11 @@
         <v>212</v>
       </c>
     </row>
-    <row r="193" spans="1:4" ht="45">
-      <c r="A193" s="7" t="s">
+    <row r="193" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A193" s="12" t="s">
         <v>215</v>
       </c>
-      <c r="B193" s="16" t="s">
+      <c r="B193" s="11" t="s">
         <v>45</v>
       </c>
       <c r="C193" s="5" t="s">
@@ -4206,9 +5896,9 @@
         <v>76</v>
       </c>
     </row>
-    <row r="194" spans="1:4" ht="45">
-      <c r="A194" s="7"/>
-      <c r="B194" s="16"/>
+    <row r="194" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A194" s="12"/>
+      <c r="B194" s="11"/>
       <c r="C194" s="5" t="s">
         <v>71</v>
       </c>
@@ -4216,9 +5906,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="195" spans="1:4" ht="45">
-      <c r="A195" s="7"/>
-      <c r="B195" s="16"/>
+    <row r="195" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A195" s="12"/>
+      <c r="B195" s="11"/>
       <c r="C195" s="5" t="s">
         <v>209</v>
       </c>
@@ -4226,9 +5916,9 @@
         <v>210</v>
       </c>
     </row>
-    <row r="196" spans="1:4" ht="30">
-      <c r="A196" s="7"/>
-      <c r="B196" s="16"/>
+    <row r="196" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A196" s="12"/>
+      <c r="B196" s="11"/>
       <c r="C196" s="5" t="s">
         <v>200</v>
       </c>
@@ -4236,11 +5926,11 @@
         <v>216</v>
       </c>
     </row>
-    <row r="198" spans="1:4" ht="45">
-      <c r="A198" s="7" t="s">
+    <row r="198" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A198" s="12" t="s">
         <v>217</v>
       </c>
-      <c r="B198" s="16" t="s">
+      <c r="B198" s="11" t="s">
         <v>36</v>
       </c>
       <c r="C198" s="5" t="s">
@@ -4250,9 +5940,9 @@
         <v>76</v>
       </c>
     </row>
-    <row r="199" spans="1:4" ht="45">
-      <c r="A199" s="7"/>
-      <c r="B199" s="16"/>
+    <row r="199" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A199" s="12"/>
+      <c r="B199" s="11"/>
       <c r="C199" s="5" t="s">
         <v>71</v>
       </c>
@@ -4260,9 +5950,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="200" spans="1:4" ht="45">
-      <c r="A200" s="7"/>
-      <c r="B200" s="16"/>
+    <row r="200" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A200" s="12"/>
+      <c r="B200" s="11"/>
       <c r="C200" s="5" t="s">
         <v>209</v>
       </c>
@@ -4270,9 +5960,9 @@
         <v>210</v>
       </c>
     </row>
-    <row r="201" spans="1:4" ht="30">
-      <c r="A201" s="7"/>
-      <c r="B201" s="16"/>
+    <row r="201" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A201" s="12"/>
+      <c r="B201" s="11"/>
       <c r="C201" s="5" t="s">
         <v>203</v>
       </c>
@@ -4280,9 +5970,9 @@
         <v>157</v>
       </c>
     </row>
-    <row r="202" spans="1:4" ht="30">
-      <c r="A202" s="7"/>
-      <c r="B202" s="16"/>
+    <row r="202" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A202" s="12"/>
+      <c r="B202" s="11"/>
       <c r="C202" s="5" t="s">
         <v>168</v>
       </c>
@@ -4290,9 +5980,9 @@
         <v>159</v>
       </c>
     </row>
-    <row r="203" spans="1:4" ht="60">
-      <c r="A203" s="7"/>
-      <c r="B203" s="16"/>
+    <row r="203" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A203" s="12"/>
+      <c r="B203" s="11"/>
       <c r="C203" s="5" t="s">
         <v>204</v>
       </c>
@@ -4300,11 +5990,11 @@
         <v>218</v>
       </c>
     </row>
-    <row r="204" spans="1:4" ht="45">
-      <c r="A204" s="7" t="s">
+    <row r="204" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A204" s="12" t="s">
         <v>219</v>
       </c>
-      <c r="B204" s="16" t="s">
+      <c r="B204" s="11" t="s">
         <v>37</v>
       </c>
       <c r="C204" s="5" t="s">
@@ -4314,9 +6004,9 @@
         <v>76</v>
       </c>
     </row>
-    <row r="205" spans="1:4" ht="45">
-      <c r="A205" s="7"/>
-      <c r="B205" s="16"/>
+    <row r="205" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A205" s="12"/>
+      <c r="B205" s="11"/>
       <c r="C205" s="5" t="s">
         <v>71</v>
       </c>
@@ -4324,9 +6014,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="206" spans="1:4" ht="45">
-      <c r="A206" s="7"/>
-      <c r="B206" s="16"/>
+    <row r="206" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A206" s="12"/>
+      <c r="B206" s="11"/>
       <c r="C206" s="5" t="s">
         <v>209</v>
       </c>
@@ -4334,9 +6024,9 @@
         <v>210</v>
       </c>
     </row>
-    <row r="207" spans="1:4" ht="30">
-      <c r="A207" s="7"/>
-      <c r="B207" s="16"/>
+    <row r="207" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A207" s="12"/>
+      <c r="B207" s="11"/>
       <c r="C207" s="5" t="s">
         <v>221</v>
       </c>
@@ -4344,46 +6034,1404 @@
         <v>220</v>
       </c>
     </row>
+    <row r="208" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A208" s="12" t="s">
+        <v>285</v>
+      </c>
+      <c r="B208" s="12" t="s">
+        <v>225</v>
+      </c>
+      <c r="C208" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="D208" s="3" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A209" s="12"/>
+      <c r="B209" s="12"/>
+      <c r="C209" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="D209" s="3" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A210" s="12"/>
+      <c r="B210" s="12"/>
+      <c r="C210" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="D210" s="3" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A211" s="12" t="s">
+        <v>292</v>
+      </c>
+      <c r="B211" s="13" t="s">
+        <v>226</v>
+      </c>
+      <c r="C211" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="D211" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A212" s="12"/>
+      <c r="B212" s="13"/>
+      <c r="C212" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="D212" s="3" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A213" s="12"/>
+      <c r="B213" s="13"/>
+      <c r="C213" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="D213" s="3" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A214" s="12"/>
+      <c r="B214" s="13"/>
+      <c r="C214" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="D214" s="3" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A215" s="12" t="s">
+        <v>295</v>
+      </c>
+      <c r="B215" s="13" t="s">
+        <v>227</v>
+      </c>
+      <c r="C215" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="D215" s="3" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A216" s="12"/>
+      <c r="B216" s="13"/>
+      <c r="C216" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="D216" s="3" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A217" s="12"/>
+      <c r="B217" s="13"/>
+      <c r="C217" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="D217" s="3" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A218" s="12"/>
+      <c r="B218" s="13"/>
+      <c r="C218" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="D218" s="3" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A219" s="12"/>
+      <c r="B219" s="13"/>
+      <c r="C219" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="D219" s="3" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A220" s="12" t="s">
+        <v>298</v>
+      </c>
+      <c r="B220" s="12" t="s">
+        <v>230</v>
+      </c>
+      <c r="C220" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="D220" s="3" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A221" s="12"/>
+      <c r="B221" s="12"/>
+      <c r="C221" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="D221" s="3" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A222" s="12"/>
+      <c r="B222" s="12"/>
+      <c r="C222" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="D222" s="3" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A223" s="12" t="s">
+        <v>301</v>
+      </c>
+      <c r="B223" s="12" t="s">
+        <v>233</v>
+      </c>
+      <c r="C223" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="D223" s="3" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A224" s="12"/>
+      <c r="B224" s="12"/>
+      <c r="C224" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="D224" s="3" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A225" s="12"/>
+      <c r="B225" s="12"/>
+      <c r="C225" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="D225" s="3" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A226" s="12" t="s">
+        <v>304</v>
+      </c>
+      <c r="B226" s="12" t="s">
+        <v>236</v>
+      </c>
+      <c r="C226" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="D226" s="3" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A227" s="12"/>
+      <c r="B227" s="12"/>
+      <c r="C227" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="D227" s="3" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A228" s="12"/>
+      <c r="B228" s="12"/>
+      <c r="C228" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="D228" s="3" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A229" s="12" t="s">
+        <v>307</v>
+      </c>
+      <c r="B229" s="12" t="s">
+        <v>237</v>
+      </c>
+      <c r="C229" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="D229" s="3" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A230" s="12"/>
+      <c r="B230" s="12"/>
+      <c r="C230" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="D230" s="3" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A231" s="12"/>
+      <c r="B231" s="12"/>
+      <c r="C231" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="D231" s="3" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A232" s="12"/>
+      <c r="B232" s="12"/>
+      <c r="C232" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="D232" s="3" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A233" s="12" t="s">
+        <v>310</v>
+      </c>
+      <c r="B233" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="C233" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="D233" s="3" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A234" s="12"/>
+      <c r="B234" s="12"/>
+      <c r="C234" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="D234" s="3" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A235" s="12"/>
+      <c r="B235" s="12"/>
+      <c r="C235" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="D235" s="3" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A236" s="12"/>
+      <c r="B236" s="12"/>
+      <c r="C236" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="D236" s="3" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A237" s="12" t="s">
+        <v>313</v>
+      </c>
+      <c r="B237" s="12" t="s">
+        <v>239</v>
+      </c>
+      <c r="C237" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="D237" s="3" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A238" s="12"/>
+      <c r="B238" s="12"/>
+      <c r="C238" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="D238" s="3" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A239" s="12"/>
+      <c r="B239" s="12"/>
+      <c r="C239" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="D239" s="3" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A240" s="12"/>
+      <c r="B240" s="12"/>
+      <c r="C240" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="D240" s="3" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A241" s="12" t="s">
+        <v>316</v>
+      </c>
+      <c r="B241" s="12" t="s">
+        <v>240</v>
+      </c>
+      <c r="C241" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="D241" s="3" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A242" s="12"/>
+      <c r="B242" s="12"/>
+      <c r="C242" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="D242" s="3" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A243" s="12"/>
+      <c r="B243" s="12"/>
+      <c r="C243" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="D243" s="3" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A244" s="12"/>
+      <c r="B244" s="12"/>
+      <c r="C244" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="D244" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A245" s="12" t="s">
+        <v>319</v>
+      </c>
+      <c r="B245" s="12" t="s">
+        <v>241</v>
+      </c>
+      <c r="C245" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="D245" s="3" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A246" s="12"/>
+      <c r="B246" s="12"/>
+      <c r="C246" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="D246" s="3" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A247" s="12"/>
+      <c r="B247" s="12"/>
+      <c r="C247" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="D247" s="3" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A248" s="12"/>
+      <c r="B248" s="12"/>
+      <c r="C248" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="D248" s="3" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A249" s="12" t="s">
+        <v>322</v>
+      </c>
+      <c r="B249" s="12" t="s">
+        <v>244</v>
+      </c>
+      <c r="C249" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="D249" s="3" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A250" s="12"/>
+      <c r="B250" s="12"/>
+      <c r="C250" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="D250" s="3" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A251" s="12"/>
+      <c r="B251" s="12"/>
+      <c r="C251" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="D251" s="3" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A252" s="12" t="s">
+        <v>325</v>
+      </c>
+      <c r="B252" s="12" t="s">
+        <v>247</v>
+      </c>
+      <c r="C252" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="D252" s="3" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A253" s="12"/>
+      <c r="B253" s="12"/>
+      <c r="C253" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="D253" s="3" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A254" s="12"/>
+      <c r="B254" s="12"/>
+      <c r="C254" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="D254" s="3" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A255" s="12" t="s">
+        <v>328</v>
+      </c>
+      <c r="B255" s="12" t="s">
+        <v>250</v>
+      </c>
+      <c r="C255" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="D255" s="3" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A256" s="12"/>
+      <c r="B256" s="12"/>
+      <c r="C256" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="D256" s="3" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A257" s="12"/>
+      <c r="B257" s="12"/>
+      <c r="C257" s="5" t="s">
+        <v>329</v>
+      </c>
+      <c r="D257" s="3" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A258" s="12" t="s">
+        <v>331</v>
+      </c>
+      <c r="B258" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="C258" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="D258" s="3" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A259" s="12"/>
+      <c r="B259" s="12"/>
+      <c r="C259" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="D259" s="3" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A260" s="12"/>
+      <c r="B260" s="12"/>
+      <c r="C260" s="5" t="s">
+        <v>332</v>
+      </c>
+      <c r="D260" s="3" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A261" s="12" t="s">
+        <v>334</v>
+      </c>
+      <c r="B261" s="12" t="s">
+        <v>256</v>
+      </c>
+      <c r="C261" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="D261" s="3" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A262" s="12"/>
+      <c r="B262" s="12"/>
+      <c r="C262" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="D262" s="3" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A263" s="12"/>
+      <c r="B263" s="12"/>
+      <c r="C263" s="5" t="s">
+        <v>335</v>
+      </c>
+      <c r="D263" s="3" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A264" s="12" t="s">
+        <v>337</v>
+      </c>
+      <c r="B264" s="12" t="s">
+        <v>259</v>
+      </c>
+      <c r="C264" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="D264" s="3" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A265" s="12"/>
+      <c r="B265" s="12"/>
+      <c r="C265" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="D265" s="3" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A266" s="12"/>
+      <c r="B266" s="12"/>
+      <c r="C266" s="5" t="s">
+        <v>338</v>
+      </c>
+      <c r="D266" s="3" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A267" s="12" t="s">
+        <v>340</v>
+      </c>
+      <c r="B267" s="12" t="s">
+        <v>341</v>
+      </c>
+      <c r="C267" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="D267" s="3" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A268" s="12"/>
+      <c r="B268" s="12"/>
+      <c r="C268" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="D268" s="3" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A269" s="12"/>
+      <c r="B269" s="12"/>
+      <c r="C269" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="D269" s="3" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A270" s="12" t="s">
+        <v>340</v>
+      </c>
+      <c r="B270" s="12" t="s">
+        <v>344</v>
+      </c>
+      <c r="C270" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="D270" s="3" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A271" s="12"/>
+      <c r="B271" s="12"/>
+      <c r="C271" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="D271" s="3" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A272" s="12"/>
+      <c r="B272" s="12"/>
+      <c r="C272" s="5" t="s">
+        <v>345</v>
+      </c>
+      <c r="D272" s="3" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A273" s="12" t="s">
+        <v>347</v>
+      </c>
+      <c r="B273" s="12" t="s">
+        <v>348</v>
+      </c>
+      <c r="C273" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="D273" s="3" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A274" s="12"/>
+      <c r="B274" s="12"/>
+      <c r="C274" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="D274" s="3" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A275" s="12"/>
+      <c r="B275" s="12"/>
+      <c r="C275" s="5" t="s">
+        <v>349</v>
+      </c>
+      <c r="D275" s="3" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A276" s="12" t="s">
+        <v>351</v>
+      </c>
+      <c r="B276" s="12" t="s">
+        <v>352</v>
+      </c>
+      <c r="C276" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="D276" s="3" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A277" s="12"/>
+      <c r="B277" s="12"/>
+      <c r="C277" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="D277" s="3" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A278" s="12"/>
+      <c r="B278" s="12"/>
+      <c r="C278" s="5" t="s">
+        <v>353</v>
+      </c>
+      <c r="D278" s="3" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A279" s="12" t="s">
+        <v>355</v>
+      </c>
+      <c r="B279" s="12" t="s">
+        <v>356</v>
+      </c>
+      <c r="C279" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="D279" s="3" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A280" s="12"/>
+      <c r="B280" s="12"/>
+      <c r="C280" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="D280" s="3" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A281" s="12"/>
+      <c r="B281" s="12"/>
+      <c r="C281" s="5" t="s">
+        <v>357</v>
+      </c>
+      <c r="D281" s="3" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A282" s="12" t="s">
+        <v>359</v>
+      </c>
+      <c r="B282" s="12" t="s">
+        <v>360</v>
+      </c>
+      <c r="C282" t="s">
+        <v>361</v>
+      </c>
+      <c r="D282" s="3" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A283" s="12"/>
+      <c r="B283" s="12"/>
+      <c r="C283" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="D283" s="3" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A284" s="12"/>
+      <c r="B284" s="12"/>
+      <c r="C284" s="5" t="s">
+        <v>362</v>
+      </c>
+      <c r="D284" s="3" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A285" s="12" t="s">
+        <v>364</v>
+      </c>
+      <c r="B285" s="12" t="s">
+        <v>365</v>
+      </c>
+      <c r="C285" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="D285" s="3" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A286" s="12"/>
+      <c r="B286" s="12"/>
+      <c r="C286" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="D286" s="3" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A287" s="12"/>
+      <c r="B287" s="12"/>
+      <c r="C287" s="5" t="s">
+        <v>366</v>
+      </c>
+      <c r="D287" s="3" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A288" s="12" t="s">
+        <v>368</v>
+      </c>
+      <c r="B288" s="12" t="s">
+        <v>369</v>
+      </c>
+      <c r="C288" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="D288" s="3" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A289" s="12"/>
+      <c r="B289" s="12"/>
+      <c r="C289" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="D289" s="3" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A290" s="12"/>
+      <c r="B290" s="12"/>
+      <c r="C290" s="5" t="s">
+        <v>370</v>
+      </c>
+      <c r="D290" s="3" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A291" s="12" t="s">
+        <v>372</v>
+      </c>
+      <c r="B291" s="12" t="s">
+        <v>373</v>
+      </c>
+      <c r="C291" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="D291" s="3" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A292" s="12"/>
+      <c r="B292" s="12"/>
+      <c r="C292" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="D292" s="3" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A293" s="12"/>
+      <c r="B293" s="12"/>
+      <c r="C293" s="5" t="s">
+        <v>374</v>
+      </c>
+      <c r="D293" s="3" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A294" s="12" t="s">
+        <v>376</v>
+      </c>
+      <c r="B294" s="12" t="s">
+        <v>377</v>
+      </c>
+      <c r="C294" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="D294" s="3" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A295" s="12"/>
+      <c r="B295" s="12"/>
+      <c r="C295" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="D295" s="3" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A296" s="12"/>
+      <c r="B296" s="12"/>
+      <c r="C296" s="5" t="s">
+        <v>378</v>
+      </c>
+      <c r="D296" s="3" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A297" s="12" t="s">
+        <v>380</v>
+      </c>
+      <c r="B297" s="12" t="s">
+        <v>381</v>
+      </c>
+      <c r="C297" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="D297" s="3" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A298" s="12"/>
+      <c r="B298" s="12"/>
+      <c r="C298" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="D298" s="3" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A299" s="12"/>
+      <c r="B299" s="12"/>
+      <c r="C299" s="5" t="s">
+        <v>382</v>
+      </c>
+      <c r="D299" s="3" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A300" s="12" t="s">
+        <v>384</v>
+      </c>
+      <c r="B300" s="12" t="s">
+        <v>385</v>
+      </c>
+      <c r="C300" t="s">
+        <v>361</v>
+      </c>
+      <c r="D300" s="3" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A301" s="12"/>
+      <c r="B301" s="12"/>
+      <c r="C301" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="D301" s="3" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A302" s="12"/>
+      <c r="B302" s="12"/>
+      <c r="C302" s="5" t="s">
+        <v>387</v>
+      </c>
+      <c r="D302" s="3" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A303" s="12" t="s">
+        <v>389</v>
+      </c>
+      <c r="B303" s="12" t="s">
+        <v>390</v>
+      </c>
+      <c r="C303" t="s">
+        <v>361</v>
+      </c>
+      <c r="D303" s="3" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A304" s="12"/>
+      <c r="B304" s="12"/>
+      <c r="C304" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="D304" s="3" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A305" s="12"/>
+      <c r="B305" s="12"/>
+      <c r="C305" t="s">
+        <v>391</v>
+      </c>
+      <c r="D305" s="3" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A306" s="12" t="s">
+        <v>393</v>
+      </c>
+      <c r="B306" s="12" t="s">
+        <v>394</v>
+      </c>
+      <c r="C306" t="s">
+        <v>361</v>
+      </c>
+      <c r="D306" s="3" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A307" s="12"/>
+      <c r="B307" s="12"/>
+      <c r="C307" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="D307" s="3" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A308" s="12"/>
+      <c r="B308" s="12"/>
+      <c r="C308" t="s">
+        <v>395</v>
+      </c>
+      <c r="D308" s="3" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="309" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A309" s="12" t="s">
+        <v>397</v>
+      </c>
+      <c r="B309" s="12" t="s">
+        <v>398</v>
+      </c>
+      <c r="C309" t="s">
+        <v>361</v>
+      </c>
+      <c r="D309" s="3" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="310" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A310" s="12"/>
+      <c r="B310" s="12"/>
+      <c r="C310" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="D310" s="3" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="311" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A311" s="12"/>
+      <c r="B311" s="12"/>
+      <c r="C311" t="s">
+        <v>399</v>
+      </c>
+      <c r="D311" s="3" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="312" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A312" s="12" t="s">
+        <v>401</v>
+      </c>
+      <c r="B312" s="12" t="s">
+        <v>402</v>
+      </c>
+      <c r="C312" t="s">
+        <v>361</v>
+      </c>
+      <c r="D312" s="3" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="313" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A313" s="12"/>
+      <c r="B313" s="12"/>
+      <c r="C313" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="D313" s="3" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="314" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A314" s="12"/>
+      <c r="B314" s="12"/>
+      <c r="C314" t="s">
+        <v>403</v>
+      </c>
+      <c r="D314" s="3" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="315" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A315" s="12" t="s">
+        <v>405</v>
+      </c>
+      <c r="B315" s="12" t="s">
+        <v>406</v>
+      </c>
+      <c r="C315" t="s">
+        <v>361</v>
+      </c>
+      <c r="D315" s="3" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="316" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A316" s="12"/>
+      <c r="B316" s="12"/>
+      <c r="C316" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="D316" s="3" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="317" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A317" s="12"/>
+      <c r="B317" s="12"/>
+      <c r="C317" t="s">
+        <v>407</v>
+      </c>
+      <c r="D317" s="3" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="318" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A318" s="12" t="s">
+        <v>409</v>
+      </c>
+      <c r="B318" s="12" t="s">
+        <v>410</v>
+      </c>
+      <c r="C318" t="s">
+        <v>361</v>
+      </c>
+      <c r="D318" s="3" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="319" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A319" s="12"/>
+      <c r="B319" s="12"/>
+      <c r="C319" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="D319" s="3" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="320" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A320" s="12"/>
+      <c r="B320" s="12"/>
+      <c r="C320" t="s">
+        <v>411</v>
+      </c>
+      <c r="D320" s="3" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="321" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A321" s="12" t="s">
+        <v>413</v>
+      </c>
+      <c r="B321" s="12" t="s">
+        <v>414</v>
+      </c>
+      <c r="C321" t="s">
+        <v>361</v>
+      </c>
+      <c r="D321" s="3" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="322" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A322" s="12"/>
+      <c r="B322" s="12"/>
+      <c r="C322" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="D322" s="3" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="323" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A323" s="12"/>
+      <c r="B323" s="12"/>
+      <c r="C323" t="s">
+        <v>415</v>
+      </c>
+      <c r="D323" s="3" t="s">
+        <v>416</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="74">
-    <mergeCell ref="B186:B191"/>
-    <mergeCell ref="A186:A191"/>
-    <mergeCell ref="A21:A23"/>
-    <mergeCell ref="A155:A157"/>
-    <mergeCell ref="B155:B157"/>
-    <mergeCell ref="B198:B203"/>
-    <mergeCell ref="A198:A203"/>
-    <mergeCell ref="B204:B207"/>
-    <mergeCell ref="A204:A207"/>
-    <mergeCell ref="B193:B196"/>
-    <mergeCell ref="A193:A196"/>
-    <mergeCell ref="B97:B103"/>
-    <mergeCell ref="A97:A103"/>
-    <mergeCell ref="B55:B58"/>
-    <mergeCell ref="A55:A58"/>
-    <mergeCell ref="B60:B63"/>
-    <mergeCell ref="A60:A63"/>
-    <mergeCell ref="B65:B68"/>
-    <mergeCell ref="B150:B153"/>
-    <mergeCell ref="B178:B181"/>
-    <mergeCell ref="A178:A181"/>
-    <mergeCell ref="A183:A185"/>
-    <mergeCell ref="B183:B185"/>
-    <mergeCell ref="B159:B164"/>
-    <mergeCell ref="A159:A164"/>
-    <mergeCell ref="A166:A169"/>
-    <mergeCell ref="B166:B169"/>
-    <mergeCell ref="B171:B176"/>
-    <mergeCell ref="A171:A176"/>
-    <mergeCell ref="A150:A153"/>
-    <mergeCell ref="B124:B126"/>
-    <mergeCell ref="A124:A126"/>
-    <mergeCell ref="A127:A133"/>
-    <mergeCell ref="B143:B148"/>
-    <mergeCell ref="A143:A148"/>
-    <mergeCell ref="B127:B133"/>
-    <mergeCell ref="B135:B141"/>
-    <mergeCell ref="A135:A141"/>
+  <mergeCells count="146">
+    <mergeCell ref="A315:A317"/>
+    <mergeCell ref="B315:B317"/>
+    <mergeCell ref="A318:A320"/>
+    <mergeCell ref="B318:B320"/>
+    <mergeCell ref="A321:A323"/>
+    <mergeCell ref="B321:B323"/>
+    <mergeCell ref="A306:A308"/>
+    <mergeCell ref="B306:B308"/>
+    <mergeCell ref="A309:A311"/>
+    <mergeCell ref="B309:B311"/>
+    <mergeCell ref="A312:A314"/>
+    <mergeCell ref="B312:B314"/>
+    <mergeCell ref="A297:A299"/>
+    <mergeCell ref="B297:B299"/>
+    <mergeCell ref="A300:A302"/>
+    <mergeCell ref="B300:B302"/>
+    <mergeCell ref="A303:A305"/>
+    <mergeCell ref="B303:B305"/>
+    <mergeCell ref="A288:A290"/>
+    <mergeCell ref="B288:B290"/>
+    <mergeCell ref="A291:A293"/>
+    <mergeCell ref="B291:B293"/>
+    <mergeCell ref="A294:A296"/>
+    <mergeCell ref="B294:B296"/>
+    <mergeCell ref="A279:A281"/>
+    <mergeCell ref="B279:B281"/>
+    <mergeCell ref="A282:A284"/>
+    <mergeCell ref="B282:B284"/>
+    <mergeCell ref="A285:A287"/>
+    <mergeCell ref="B285:B287"/>
+    <mergeCell ref="A270:A272"/>
+    <mergeCell ref="B270:B272"/>
+    <mergeCell ref="A273:A275"/>
+    <mergeCell ref="B273:B275"/>
+    <mergeCell ref="A276:A278"/>
+    <mergeCell ref="B276:B278"/>
+    <mergeCell ref="A261:A263"/>
+    <mergeCell ref="B261:B263"/>
+    <mergeCell ref="A264:A266"/>
+    <mergeCell ref="B264:B266"/>
+    <mergeCell ref="A267:A269"/>
+    <mergeCell ref="B267:B269"/>
+    <mergeCell ref="A252:A254"/>
+    <mergeCell ref="B252:B254"/>
+    <mergeCell ref="A255:A257"/>
+    <mergeCell ref="B255:B257"/>
+    <mergeCell ref="A258:A260"/>
+    <mergeCell ref="B258:B260"/>
+    <mergeCell ref="A241:A244"/>
+    <mergeCell ref="B241:B244"/>
+    <mergeCell ref="A245:A248"/>
+    <mergeCell ref="B245:B248"/>
+    <mergeCell ref="A249:A251"/>
+    <mergeCell ref="B249:B251"/>
+    <mergeCell ref="A229:A232"/>
+    <mergeCell ref="B229:B232"/>
+    <mergeCell ref="A233:A236"/>
+    <mergeCell ref="B233:B236"/>
+    <mergeCell ref="A237:A240"/>
+    <mergeCell ref="B237:B240"/>
+    <mergeCell ref="A220:A222"/>
+    <mergeCell ref="B220:B222"/>
+    <mergeCell ref="A223:A225"/>
+    <mergeCell ref="B223:B225"/>
+    <mergeCell ref="A226:A228"/>
+    <mergeCell ref="B226:B228"/>
+    <mergeCell ref="A208:A210"/>
+    <mergeCell ref="B208:B210"/>
+    <mergeCell ref="A211:A214"/>
+    <mergeCell ref="B211:B214"/>
+    <mergeCell ref="A215:A219"/>
+    <mergeCell ref="B215:B219"/>
+    <mergeCell ref="B30:B33"/>
+    <mergeCell ref="A30:A33"/>
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="B2:B7"/>
+    <mergeCell ref="B9:B14"/>
+    <mergeCell ref="A9:A14"/>
+    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="B16:B19"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="B25:B28"/>
+    <mergeCell ref="A25:A28"/>
+    <mergeCell ref="A65:A68"/>
+    <mergeCell ref="B35:B38"/>
+    <mergeCell ref="A35:A38"/>
+    <mergeCell ref="B40:B43"/>
+    <mergeCell ref="A40:A43"/>
+    <mergeCell ref="B50:B53"/>
+    <mergeCell ref="A50:A53"/>
+    <mergeCell ref="B45:B48"/>
+    <mergeCell ref="A45:A48"/>
     <mergeCell ref="B119:B122"/>
     <mergeCell ref="A119:A122"/>
     <mergeCell ref="B112:B117"/>
@@ -4400,26 +7448,44 @@
     <mergeCell ref="B85:B87"/>
     <mergeCell ref="B89:B95"/>
     <mergeCell ref="A89:A95"/>
-    <mergeCell ref="A65:A68"/>
-    <mergeCell ref="B35:B38"/>
-    <mergeCell ref="A35:A38"/>
-    <mergeCell ref="B40:B43"/>
-    <mergeCell ref="A40:A43"/>
-    <mergeCell ref="B50:B53"/>
-    <mergeCell ref="A50:A53"/>
-    <mergeCell ref="B45:B48"/>
-    <mergeCell ref="A45:A48"/>
-    <mergeCell ref="B30:B33"/>
-    <mergeCell ref="A30:A33"/>
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="B2:B7"/>
-    <mergeCell ref="B9:B14"/>
-    <mergeCell ref="A9:A14"/>
-    <mergeCell ref="A16:A19"/>
-    <mergeCell ref="B16:B19"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="B25:B28"/>
-    <mergeCell ref="A25:A28"/>
+    <mergeCell ref="A150:A153"/>
+    <mergeCell ref="B124:B126"/>
+    <mergeCell ref="A124:A126"/>
+    <mergeCell ref="A127:A133"/>
+    <mergeCell ref="B143:B148"/>
+    <mergeCell ref="A143:A148"/>
+    <mergeCell ref="B127:B133"/>
+    <mergeCell ref="B135:B141"/>
+    <mergeCell ref="A135:A141"/>
+    <mergeCell ref="B183:B185"/>
+    <mergeCell ref="B159:B164"/>
+    <mergeCell ref="A159:A164"/>
+    <mergeCell ref="A166:A169"/>
+    <mergeCell ref="B166:B169"/>
+    <mergeCell ref="B171:B176"/>
+    <mergeCell ref="A171:A176"/>
+    <mergeCell ref="B198:B203"/>
+    <mergeCell ref="A198:A203"/>
+    <mergeCell ref="B204:B207"/>
+    <mergeCell ref="A204:A207"/>
+    <mergeCell ref="B193:B196"/>
+    <mergeCell ref="A193:A196"/>
+    <mergeCell ref="B186:B191"/>
+    <mergeCell ref="A186:A191"/>
+    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="A155:A157"/>
+    <mergeCell ref="B155:B157"/>
+    <mergeCell ref="B97:B103"/>
+    <mergeCell ref="A97:A103"/>
+    <mergeCell ref="B55:B58"/>
+    <mergeCell ref="A55:A58"/>
+    <mergeCell ref="B60:B63"/>
+    <mergeCell ref="A60:A63"/>
+    <mergeCell ref="B65:B68"/>
+    <mergeCell ref="B150:B153"/>
+    <mergeCell ref="B178:B181"/>
+    <mergeCell ref="A178:A181"/>
+    <mergeCell ref="A183:A185"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
